--- a/health-service-faults/health-service-faults.xlsx
+++ b/health-service-faults/health-service-faults.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alkohli\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Doc resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:101_{4AB704CF-5053-4F19-842A-6DD373AD0FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338B3E66-64FF-4FF7-98FB-1EF0E117EEA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2000" yWindow="1433" windowWidth="19200" windowHeight="9980" firstSheet="2" xr2:uid="{9F623825-BFDD-4963-AECA-C67A6A2C6FEA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{9F623825-BFDD-4963-AECA-C67A6A2C6FEA}"/>
   </bookViews>
   <sheets>
     <sheet name="Health Faults" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,11 @@
     <sheet name="Health Settings" sheetId="4" r:id="rId3"/>
     <sheet name="Collected Metrics" sheetId="5" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Collected Metrics'!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Health Faults'!$A$4:$H$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Health Settings'!$A$4:$F$149</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="827">
   <si>
     <t>Format: Microsoft.Health.FaultType.&lt;Type&gt;.&lt;Fault&gt;</t>
   </si>
@@ -1289,9 +1294,6 @@
     <t>Storage Settings</t>
   </si>
   <si>
-    <t>Related Fault (If Applicable)</t>
-  </si>
-  <si>
     <t>System.Storage.Volume.CapacityThreshold.Enabled</t>
   </si>
   <si>
@@ -2099,9 +2101,6 @@
     <t>Time to hold stale (not recently reported) health alerts/faults. Setting only applied during leader activation.</t>
   </si>
   <si>
-    <t>Compute VM Metrics</t>
-  </si>
-  <si>
     <t>Microsoft.Health.Metric.VM.MemoryConsumed</t>
   </si>
   <si>
@@ -2126,9 +2125,6 @@
     <t>Microsoft.Health.Metric.VM.GuestState</t>
   </si>
   <si>
-    <t>Compute Cluster Metrics</t>
-  </si>
-  <si>
     <t>Microsoft.Health.Metric.Cluster.VCPU</t>
   </si>
   <si>
@@ -2165,9 +2161,6 @@
     <t>Microsoft.Health.Metric.Cluster.CPUSReserved</t>
   </si>
   <si>
-    <t>Compute Node Metrics</t>
-  </si>
-  <si>
     <t>Microsoft.Health.Metric.Node.VHDmaximumTotal</t>
   </si>
   <si>
@@ -2511,13 +2504,34 @@
   </si>
   <si>
     <t>netadapter.bandwidth.rdma.total</t>
+  </si>
+  <si>
+    <t>Settings</t>
+  </si>
+  <si>
+    <t>Setting Type</t>
+  </si>
+  <si>
+    <t>Metrics Type</t>
+  </si>
+  <si>
+    <t>Compute VM</t>
+  </si>
+  <si>
+    <t>Metrics</t>
+  </si>
+  <si>
+    <t>Compute Cluster</t>
+  </si>
+  <si>
+    <t>Compute Node</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2551,16 +2565,35 @@
       <name val="Segoe UI VSS (Regular)"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -2568,47 +2601,264 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2943,2119 +3193,2206 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7298EEFA-59C4-4AD7-95DB-7BE82B31C276}">
-  <dimension ref="B1:I93"/>
+  <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="21.52734375" customWidth="1"/>
-    <col min="3" max="3" width="48.703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.29296875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="24.17578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="40.29296875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="35.703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.17578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.54296875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="48.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.26953125" style="29" customWidth="1"/>
+    <col min="5" max="5" width="24.1796875" style="30" customWidth="1"/>
+    <col min="6" max="6" width="40.26953125" style="30" customWidth="1"/>
+    <col min="7" max="7" width="35.7265625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="32.1796875" style="29" customWidth="1"/>
+    <col min="9" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9">
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="2:9">
-      <c r="B2" s="14" t="s">
+    <row r="1" spans="1:8">
+      <c r="H1" s="31"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-    </row>
-    <row r="4" spans="2:9">
-      <c r="B4" s="4" t="s">
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="E4" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="F4" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="G4" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="H4" s="36" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="74.25" customHeight="1">
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="1:8" ht="74.25" customHeight="1">
+      <c r="A5" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="C5" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="D5" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="E5" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="F5" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="G5" s="34" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="2:9">
-      <c r="B6" s="2" t="s">
+      <c r="H5" s="33"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="C6" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="D6" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="E6" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="F6" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="G6" s="34" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="2:9">
-      <c r="B7" s="2" t="s">
+      <c r="H6" s="33"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="C7" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="D7" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="E7" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="F7" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="G7" s="34" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" ht="74.25" customHeight="1">
-      <c r="B8" s="2" t="s">
+      <c r="H7" s="33"/>
+    </row>
+    <row r="8" spans="1:8" ht="74.25" customHeight="1">
+      <c r="A8" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="C8" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="D8" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="E8" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="F8" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="G8" s="34" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" ht="43">
-      <c r="B9" s="2" t="s">
+      <c r="H8" s="33"/>
+    </row>
+    <row r="9" spans="1:8" ht="58">
+      <c r="A9" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="C9" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="D9" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="E9" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="F9" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="G9" s="34" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" ht="28.7">
-      <c r="B10" s="2" t="s">
+      <c r="H9" s="33"/>
+    </row>
+    <row r="10" spans="1:8" ht="29">
+      <c r="A10" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="C10" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="D10" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="E10" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="F10" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="G10" s="34" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" ht="28.7">
-      <c r="B11" s="2" t="s">
+      <c r="H10" s="33"/>
+    </row>
+    <row r="11" spans="1:8" ht="29">
+      <c r="A11" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="C11" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="D11" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="E11" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="F11" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="G11" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="H11" s="34" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="47.25" customHeight="1">
-      <c r="B12" s="2" t="s">
+    <row r="12" spans="1:8" ht="47.25" customHeight="1">
+      <c r="A12" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="C12" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="D12" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="E12" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="F12" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="G12" s="34" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" ht="46.5" customHeight="1">
-      <c r="B13" s="2" t="s">
+      <c r="H12" s="33"/>
+    </row>
+    <row r="13" spans="1:8" ht="46.5" customHeight="1">
+      <c r="A13" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="B13" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="C13" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="D13" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="E13" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="F13" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="G13" s="34" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="14" spans="2:9" ht="75" customHeight="1">
-      <c r="B14" s="2" t="s">
+      <c r="H13" s="33"/>
+    </row>
+    <row r="14" spans="1:8" ht="75" customHeight="1">
+      <c r="A14" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="B14" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="C14" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="D14" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="E14" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="F14" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="G14" s="34" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" ht="78" customHeight="1">
-      <c r="B15" s="2" t="s">
+      <c r="H14" s="33"/>
+    </row>
+    <row r="15" spans="1:8" ht="78" customHeight="1">
+      <c r="A15" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="B15" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="C15" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="D15" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="E15" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="F15" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="G15" s="34" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="16" spans="2:9" ht="74.25" customHeight="1">
-      <c r="B16" s="2" t="s">
+      <c r="H15" s="33"/>
+    </row>
+    <row r="16" spans="1:8" ht="74.25" customHeight="1">
+      <c r="A16" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="B16" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="C16" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="D16" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="E16" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="F16" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="G16" s="34" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" ht="63.75" customHeight="1">
-      <c r="B17" s="2" t="s">
+      <c r="H16" s="33"/>
+    </row>
+    <row r="17" spans="1:8" ht="63.75" customHeight="1">
+      <c r="A17" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="B17" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="C17" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="D17" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="E17" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="F17" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="G17" s="34" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" ht="66.75" customHeight="1">
-      <c r="B18" s="2" t="s">
+      <c r="H17" s="33"/>
+    </row>
+    <row r="18" spans="1:8" ht="66.75" customHeight="1">
+      <c r="A18" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="B18" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="C18" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="D18" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="E18" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="F18" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="G18" s="34" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="19" spans="2:9" ht="63" customHeight="1">
-      <c r="B19" s="2" t="s">
+      <c r="H18" s="33"/>
+    </row>
+    <row r="19" spans="1:8" ht="63" customHeight="1">
+      <c r="A19" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="B19" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="C19" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="D19" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="E19" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="F19" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="G19" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="2:9" ht="105.75" customHeight="1">
-      <c r="B20" s="2" t="s">
+      <c r="H19" s="34"/>
+    </row>
+    <row r="20" spans="1:8" ht="105.75" customHeight="1">
+      <c r="A20" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="B20" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="C20" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="D20" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="E20" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="F20" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="G20" s="34" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="21" spans="2:9" ht="120" customHeight="1">
-      <c r="B21" s="2" t="s">
+      <c r="H20" s="33"/>
+    </row>
+    <row r="21" spans="1:8" ht="120" customHeight="1">
+      <c r="A21" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="B21" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="C21" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="D21" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="E21" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="F21" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="G21" s="34" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="2:9" ht="91.5" customHeight="1">
-      <c r="B22" s="2" t="s">
+      <c r="H21" s="33"/>
+    </row>
+    <row r="22" spans="1:8" ht="91.5" customHeight="1">
+      <c r="A22" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="B22" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="C22" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="D22" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="E22" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="F22" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="G22" s="34" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" ht="95.25" customHeight="1">
-      <c r="B23" s="2" t="s">
+      <c r="H22" s="33"/>
+    </row>
+    <row r="23" spans="1:8" ht="95.25" customHeight="1">
+      <c r="A23" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="B23" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="C23" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="D23" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="E23" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="F23" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="G23" s="34" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="24" spans="2:9" ht="93" customHeight="1">
-      <c r="B24" s="2" t="s">
+      <c r="H23" s="33"/>
+    </row>
+    <row r="24" spans="1:8" ht="93" customHeight="1">
+      <c r="A24" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="B24" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="C24" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="D24" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="E24" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="F24" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="G24" s="34" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="25" spans="2:9" ht="93" customHeight="1">
-      <c r="B25" s="2" t="s">
+      <c r="H24" s="33"/>
+    </row>
+    <row r="25" spans="1:8" ht="93" customHeight="1">
+      <c r="A25" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="B25" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="C25" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="D25" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="E25" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="F25" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="G25" s="34" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="26" spans="2:9" ht="93" customHeight="1">
-      <c r="B26" s="2" t="s">
+      <c r="H25" s="33"/>
+    </row>
+    <row r="26" spans="1:8" ht="93" customHeight="1">
+      <c r="A26" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="B26" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="C26" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="D26" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="E26" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="F26" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="G26" s="34" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="27" spans="2:9" ht="96.75" customHeight="1">
-      <c r="B27" s="2" t="s">
+      <c r="H26" s="33"/>
+    </row>
+    <row r="27" spans="1:8" ht="96.75" customHeight="1">
+      <c r="A27" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="B27" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="C27" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="D27" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="E27" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="F27" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="G27" s="34" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" ht="95.25" customHeight="1">
-      <c r="B28" s="2" t="s">
+      <c r="H27" s="33"/>
+    </row>
+    <row r="28" spans="1:8" ht="95.25" customHeight="1">
+      <c r="A28" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="B28" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="C28" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="D28" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="E28" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="F28" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="G28" s="34" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="29" spans="2:9" ht="43">
-      <c r="B29" s="2" t="s">
+      <c r="H28" s="33"/>
+    </row>
+    <row r="29" spans="1:8" ht="43.5">
+      <c r="A29" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="B29" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="C29" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="D29" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="E29" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="F29" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="G29" s="34" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="30" spans="2:9" ht="28.95" customHeight="1">
-      <c r="B30" s="2" t="s">
+      <c r="H29" s="33"/>
+    </row>
+    <row r="30" spans="1:8" ht="29" customHeight="1">
+      <c r="A30" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="B30" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="C30" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="D30" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="E30" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="F30" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="G30" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="H30" s="33" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="28.7">
-      <c r="B31" s="2" t="s">
+    <row r="31" spans="1:8" ht="43.5">
+      <c r="A31" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="B31" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="C31" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="D31" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="E31" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="F31" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="G31" s="34" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="32" spans="2:9" ht="57.35">
-      <c r="B32" s="2" t="s">
+      <c r="H31" s="33"/>
+    </row>
+    <row r="32" spans="1:8" ht="58">
+      <c r="A32" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="B32" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="C32" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="D32" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="E32" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="F32" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="G32" s="34" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="33" spans="2:8" ht="28.7">
-      <c r="B33" s="2" t="s">
+      <c r="H32" s="33"/>
+    </row>
+    <row r="33" spans="1:8" ht="43.5">
+      <c r="A33" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="B33" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="C33" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="D33" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="E33" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="F33" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="G33" s="34" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="34" spans="2:8" ht="28.7">
-      <c r="B34" s="2" t="s">
+      <c r="H33" s="33"/>
+    </row>
+    <row r="34" spans="1:8" ht="29">
+      <c r="A34" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="B34" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="C34" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="D34" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="E34" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="F34" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="G34" s="34" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="35" spans="2:8" ht="43">
-      <c r="B35" s="2" t="s">
+      <c r="H34" s="33"/>
+    </row>
+    <row r="35" spans="1:8" ht="43.5">
+      <c r="A35" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="B35" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="C35" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="D35" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="E35" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="F35" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="G35" s="34" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="36" spans="2:8" ht="43">
-      <c r="B36" s="2" t="s">
+      <c r="H35" s="33"/>
+    </row>
+    <row r="36" spans="1:8" ht="43.5">
+      <c r="A36" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="B36" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="C36" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="D36" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="E36" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="F36" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="H36" s="3" t="s">
+      <c r="G36" s="34" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="37" spans="2:8" ht="28.7">
-      <c r="B37" s="2" t="s">
+      <c r="H36" s="33"/>
+    </row>
+    <row r="37" spans="1:8" ht="29">
+      <c r="A37" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="B37" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="C37" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="D37" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="E37" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="G37" s="3" t="s">
+      <c r="F37" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="G37" s="34" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="38" spans="2:8" ht="28.7">
-      <c r="B38" s="2" t="s">
+      <c r="H37" s="33"/>
+    </row>
+    <row r="38" spans="1:8" ht="29">
+      <c r="A38" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="B38" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="C38" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="D38" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="E38" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="F38" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="G38" s="34" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="39" spans="2:8" ht="28.7">
-      <c r="B39" s="2" t="s">
+      <c r="H38" s="33"/>
+    </row>
+    <row r="39" spans="1:8" ht="29">
+      <c r="A39" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="B39" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="C39" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="D39" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="E39" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="F39" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="G39" s="34" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="40" spans="2:8" ht="28.7">
-      <c r="B40" s="2" t="s">
+      <c r="H39" s="33"/>
+    </row>
+    <row r="40" spans="1:8" ht="29">
+      <c r="A40" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="B40" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="C40" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="D40" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="E40" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="F40" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="H40" s="3" t="s">
+      <c r="G40" s="34" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="41" spans="2:8" ht="28.7">
-      <c r="B41" s="2" t="s">
+      <c r="H40" s="33"/>
+    </row>
+    <row r="41" spans="1:8" ht="29">
+      <c r="A41" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="B41" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="C41" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="D41" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="E41" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="G41" s="3" t="s">
+      <c r="F41" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="H41" s="3" t="s">
+      <c r="G41" s="34" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="42" spans="2:8" ht="28.7">
-      <c r="B42" s="2" t="s">
+      <c r="H41" s="33"/>
+    </row>
+    <row r="42" spans="1:8" ht="29">
+      <c r="A42" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="B42" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="C42" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="D42" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="E42" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="G42" s="3" t="s">
+      <c r="F42" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="H42" s="3" t="s">
+      <c r="G42" s="34" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="43" spans="2:8" ht="28.7">
-      <c r="B43" s="2" t="s">
+      <c r="H42" s="33"/>
+    </row>
+    <row r="43" spans="1:8" ht="29">
+      <c r="A43" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="B43" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="C43" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="D43" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="E43" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="G43" s="3" t="s">
+      <c r="F43" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="H43" s="3" t="s">
+      <c r="G43" s="34" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="44" spans="2:8" ht="28.7">
-      <c r="B44" s="2" t="s">
+      <c r="H43" s="33"/>
+    </row>
+    <row r="44" spans="1:8" ht="29">
+      <c r="A44" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="B44" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="C44" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="D44" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="E44" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="G44" s="3" t="s">
+      <c r="F44" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="H44" s="3" t="s">
+      <c r="G44" s="34" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="45" spans="2:8" ht="57.35">
-      <c r="B45" s="2" t="s">
+      <c r="H44" s="33"/>
+    </row>
+    <row r="45" spans="1:8" ht="58">
+      <c r="A45" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="B45" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="C45" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="D45" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="E45" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="G45" s="3" t="s">
+      <c r="F45" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="H45" s="3" t="s">
+      <c r="G45" s="34" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="46" spans="2:8" ht="71.7">
-      <c r="B46" s="2" t="s">
+      <c r="H45" s="33"/>
+    </row>
+    <row r="46" spans="1:8" ht="72.5">
+      <c r="A46" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="B46" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="C46" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="D46" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="E46" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="G46" s="3" t="s">
+      <c r="F46" s="34" t="s">
         <v>156</v>
       </c>
-      <c r="H46" s="3" t="s">
+      <c r="G46" s="34" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="47" spans="2:8" ht="71.7">
-      <c r="B47" s="2" t="s">
+      <c r="H46" s="33"/>
+    </row>
+    <row r="47" spans="1:8" ht="72.5">
+      <c r="A47" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="B47" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="C47" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="D47" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="E47" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="G47" s="3" t="s">
+      <c r="F47" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="H47" s="3" t="s">
+      <c r="G47" s="34" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="48" spans="2:8" ht="77.25" customHeight="1">
-      <c r="B48" s="2" t="s">
+      <c r="H47" s="33"/>
+    </row>
+    <row r="48" spans="1:8" ht="77.25" customHeight="1">
+      <c r="A48" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="B48" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="C48" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="D48" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="E48" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="G48" s="3" t="s">
+      <c r="F48" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="H48" s="3" t="s">
+      <c r="G48" s="34" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="49" spans="2:9" ht="76.5" customHeight="1">
-      <c r="B49" s="2" t="s">
+      <c r="H48" s="33"/>
+    </row>
+    <row r="49" spans="1:8" ht="76.5" customHeight="1">
+      <c r="A49" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="B49" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="C49" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="D49" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="E49" s="34" t="s">
         <v>165</v>
       </c>
-      <c r="G49" s="3" t="s">
+      <c r="F49" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="H49" s="3" t="s">
+      <c r="G49" s="34" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="50" spans="2:9" ht="62.25" customHeight="1">
-      <c r="B50" s="2" t="s">
+      <c r="H49" s="33"/>
+    </row>
+    <row r="50" spans="1:8" ht="62.25" customHeight="1">
+      <c r="A50" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="B50" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="C50" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="D50" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="E50" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="G50" s="3" t="s">
+      <c r="F50" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="H50" s="3" t="s">
+      <c r="G50" s="34" t="s">
         <v>171</v>
       </c>
-      <c r="I50" s="2" t="s">
+      <c r="H50" s="33" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="51" spans="2:9" ht="107.25" customHeight="1">
-      <c r="B51" s="2" t="s">
+    <row r="51" spans="1:8" ht="107.25" customHeight="1">
+      <c r="A51" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="B51" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="C51" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="D51" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="E51" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="G51" s="3" t="s">
+      <c r="F51" s="34" t="s">
         <v>175</v>
       </c>
-      <c r="H51" s="3" t="s">
+      <c r="G51" s="34" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="52" spans="2:9" ht="49.5" customHeight="1">
-      <c r="B52" s="2" t="s">
+      <c r="H51" s="33"/>
+    </row>
+    <row r="52" spans="1:8" ht="49.5" customHeight="1">
+      <c r="A52" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="B52" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="C52" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="D52" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="F52" s="3" t="s">
+      <c r="E52" s="34" t="s">
         <v>178</v>
       </c>
-      <c r="G52" s="3" t="s">
+      <c r="F52" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="H52" s="3" t="s">
+      <c r="G52" s="34" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="53" spans="2:9" ht="107.25" customHeight="1">
-      <c r="B53" s="2" t="s">
+      <c r="H52" s="33"/>
+    </row>
+    <row r="53" spans="1:8" ht="107.25" customHeight="1">
+      <c r="A53" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="B53" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="C53" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="D53" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="F53" s="3" t="s">
+      <c r="E53" s="34" t="s">
         <v>182</v>
       </c>
-      <c r="G53" s="3" t="s">
+      <c r="F53" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="H53" s="3" t="s">
+      <c r="G53" s="34" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="54" spans="2:9" ht="107.25" customHeight="1">
-      <c r="B54" s="2" t="s">
+      <c r="H53" s="33"/>
+    </row>
+    <row r="54" spans="1:8" ht="107.25" customHeight="1">
+      <c r="A54" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="B54" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="C54" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="D54" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="F54" s="3" t="s">
+      <c r="E54" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="G54" s="3" t="s">
+      <c r="F54" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="H54" s="3" t="s">
+      <c r="G54" s="34" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="55" spans="2:9" ht="43">
-      <c r="B55" s="2" t="s">
+      <c r="H54" s="33"/>
+    </row>
+    <row r="55" spans="1:8" ht="43.5">
+      <c r="A55" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="B55" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="C55" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="D55" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="F55" s="3" t="s">
+      <c r="E55" s="34" t="s">
         <v>191</v>
       </c>
-      <c r="G55" s="3" t="s">
+      <c r="F55" s="34" t="s">
         <v>192</v>
       </c>
-      <c r="H55" s="3" t="s">
+      <c r="G55" s="34" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="56" spans="2:9" ht="28.7">
-      <c r="B56" s="2" t="s">
+      <c r="H55" s="33"/>
+    </row>
+    <row r="56" spans="1:8" ht="29">
+      <c r="A56" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="B56" s="33" t="s">
         <v>193</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="C56" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="D56" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="F56" s="3" t="s">
+      <c r="E56" s="34" t="s">
         <v>194</v>
       </c>
-      <c r="G56" s="3" t="s">
+      <c r="F56" s="34" t="s">
         <v>195</v>
       </c>
-      <c r="H56" s="3" t="s">
+      <c r="G56" s="34" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="57" spans="2:9" ht="90.75" customHeight="1">
-      <c r="B57" s="2" t="s">
+      <c r="H56" s="33"/>
+    </row>
+    <row r="57" spans="1:8" ht="90.75" customHeight="1">
+      <c r="A57" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="B57" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="C57" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="D57" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="F57" s="3" t="s">
+      <c r="E57" s="34" t="s">
         <v>199</v>
       </c>
-      <c r="G57" s="3" t="s">
+      <c r="F57" s="34" t="s">
         <v>200</v>
       </c>
-      <c r="H57" s="3" t="s">
+      <c r="G57" s="34" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="58" spans="2:9" ht="137.25" customHeight="1">
-      <c r="B58" s="2" t="s">
+      <c r="H57" s="33"/>
+    </row>
+    <row r="58" spans="1:8" ht="137.25" customHeight="1">
+      <c r="A58" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="B58" s="33" t="s">
         <v>202</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="C58" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="D58" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="E58" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="G58" s="3" t="s">
+      <c r="F58" s="34" t="s">
         <v>204</v>
       </c>
-      <c r="H58" s="3" t="s">
+      <c r="G58" s="34" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="59" spans="2:9" ht="28.7">
-      <c r="B59" s="2" t="s">
+      <c r="H58" s="33"/>
+    </row>
+    <row r="59" spans="1:8" ht="29">
+      <c r="A59" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="B59" s="33" t="s">
         <v>206</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="C59" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="D59" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="F59" s="3" t="s">
+      <c r="E59" s="34" t="s">
         <v>207</v>
       </c>
-      <c r="G59" s="3" t="s">
+      <c r="F59" s="34" t="s">
         <v>208</v>
       </c>
-      <c r="H59" s="3" t="s">
+      <c r="G59" s="34" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="60" spans="2:9" ht="62.25" customHeight="1">
-      <c r="B60" s="2" t="s">
+      <c r="H59" s="33"/>
+    </row>
+    <row r="60" spans="1:8" ht="62.25" customHeight="1">
+      <c r="A60" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="B60" s="33" t="s">
         <v>210</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="C60" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="D60" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="F60" s="3" t="s">
+      <c r="E60" s="34" t="s">
         <v>211</v>
       </c>
-      <c r="G60" s="3" t="s">
+      <c r="F60" s="34" t="s">
         <v>212</v>
       </c>
-      <c r="H60" s="3" t="s">
+      <c r="G60" s="34" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="61" spans="2:9" ht="150" customHeight="1">
-      <c r="B61" s="2" t="s">
+      <c r="H60" s="33"/>
+    </row>
+    <row r="61" spans="1:8" ht="150" customHeight="1">
+      <c r="A61" s="33" t="s">
         <v>213</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="B61" s="33" t="s">
         <v>214</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="C61" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="D61" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="F61" s="3" t="s">
+      <c r="E61" s="34" t="s">
         <v>215</v>
       </c>
-      <c r="G61" s="3" t="s">
+      <c r="F61" s="34" t="s">
         <v>216</v>
       </c>
-      <c r="H61" s="3" t="s">
+      <c r="G61" s="34" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="62" spans="2:9" ht="199.5" customHeight="1">
-      <c r="B62" s="2" t="s">
+      <c r="H61" s="33"/>
+    </row>
+    <row r="62" spans="1:8" ht="199.5" customHeight="1">
+      <c r="A62" s="33" t="s">
         <v>213</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="B62" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="C62" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="D62" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="F62" s="3" t="s">
+      <c r="E62" s="34" t="s">
         <v>215</v>
       </c>
-      <c r="G62" s="3" t="s">
+      <c r="F62" s="34" t="s">
         <v>219</v>
       </c>
-      <c r="H62" s="3" t="s">
+      <c r="G62" s="34" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="63" spans="2:9" ht="36" customHeight="1">
-      <c r="B63" s="2" t="s">
+      <c r="H62" s="33"/>
+    </row>
+    <row r="63" spans="1:8" ht="36" customHeight="1">
+      <c r="A63" s="33" t="s">
         <v>221</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="B63" s="33" t="s">
         <v>222</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="C63" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="D63" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="F63" s="3" t="s">
+      <c r="E63" s="34" t="s">
         <v>223</v>
       </c>
-      <c r="G63" s="3" t="s">
+      <c r="F63" s="34" t="s">
         <v>223</v>
       </c>
-      <c r="H63" s="3" t="s">
+      <c r="G63" s="34" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="64" spans="2:9" ht="93.75" customHeight="1">
-      <c r="B64" s="2" t="s">
+      <c r="H63" s="33"/>
+    </row>
+    <row r="64" spans="1:8" ht="93.75" customHeight="1">
+      <c r="A64" s="33" t="s">
         <v>225</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="B64" s="33" t="s">
         <v>226</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="C64" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="D64" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="F64" s="3" t="s">
+      <c r="E64" s="34" t="s">
         <v>215</v>
       </c>
-      <c r="G64" s="3" t="s">
+      <c r="F64" s="34" t="s">
         <v>227</v>
       </c>
-      <c r="H64" s="3" t="s">
+      <c r="G64" s="34" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="65" spans="2:8" ht="36" customHeight="1">
-      <c r="B65" s="2" t="s">
+      <c r="H64" s="33"/>
+    </row>
+    <row r="65" spans="1:8" ht="36" customHeight="1">
+      <c r="A65" s="33" t="s">
         <v>225</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="B65" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="C65" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="D65" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="F65" s="3" t="s">
+      <c r="E65" s="34" t="s">
         <v>215</v>
       </c>
-      <c r="G65" s="3" t="s">
+      <c r="F65" s="34" t="s">
         <v>230</v>
       </c>
-      <c r="H65" s="3" t="s">
+      <c r="G65" s="34" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="66" spans="2:8" ht="28.7">
-      <c r="B66" s="2" t="s">
+      <c r="H65" s="33"/>
+    </row>
+    <row r="66" spans="1:8" ht="29">
+      <c r="A66" s="33" t="s">
         <v>232</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="B66" s="33" t="s">
         <v>233</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="C66" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E66" s="2" t="s">
+      <c r="D66" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="F66" s="3" t="s">
+      <c r="E66" s="34" t="s">
         <v>234</v>
       </c>
-      <c r="G66" s="3" t="s">
+      <c r="F66" s="34" t="s">
         <v>235</v>
       </c>
-      <c r="H66" s="3" t="s">
+      <c r="G66" s="34" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="67" spans="2:8" ht="61.5" customHeight="1">
-      <c r="B67" s="2" t="s">
+      <c r="H66" s="33"/>
+    </row>
+    <row r="67" spans="1:8" ht="61.5" customHeight="1">
+      <c r="A67" s="33" t="s">
         <v>237</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="B67" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="C67" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E67" s="2" t="s">
+      <c r="D67" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="F67" s="3" t="s">
+      <c r="E67" s="34" t="s">
         <v>239</v>
       </c>
-      <c r="G67" s="3" t="s">
+      <c r="F67" s="34" t="s">
         <v>240</v>
       </c>
-      <c r="H67" s="3" t="s">
+      <c r="G67" s="34" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="68" spans="2:8" ht="46.5" customHeight="1">
-      <c r="B68" s="2" t="s">
+      <c r="H67" s="33"/>
+    </row>
+    <row r="68" spans="1:8" ht="46.5" customHeight="1">
+      <c r="A68" s="33" t="s">
         <v>237</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="B68" s="33" t="s">
         <v>242</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="C68" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="D68" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="F68" s="3" t="s">
+      <c r="E68" s="34" t="s">
         <v>243</v>
       </c>
-      <c r="G68" s="3" t="s">
+      <c r="F68" s="34" t="s">
         <v>244</v>
       </c>
-      <c r="H68" s="3" t="s">
+      <c r="G68" s="34" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="69" spans="2:8" ht="28.7">
-      <c r="B69" s="2" t="s">
+      <c r="H68" s="33"/>
+    </row>
+    <row r="69" spans="1:8" ht="29">
+      <c r="A69" s="33" t="s">
         <v>237</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="B69" s="33" t="s">
         <v>246</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="C69" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="D69" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="F69" s="3" t="s">
+      <c r="E69" s="34" t="s">
         <v>247</v>
       </c>
-      <c r="G69" s="3" t="s">
+      <c r="F69" s="34" t="s">
         <v>248</v>
       </c>
-      <c r="H69" s="3" t="s">
+      <c r="G69" s="34" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="70" spans="2:8" ht="43">
-      <c r="B70" s="2" t="s">
+      <c r="H69" s="33"/>
+    </row>
+    <row r="70" spans="1:8" ht="43.5">
+      <c r="A70" s="33" t="s">
         <v>250</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="B70" s="33" t="s">
         <v>251</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="C70" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="D70" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="F70" s="3" t="s">
+      <c r="E70" s="34" t="s">
         <v>252</v>
       </c>
-      <c r="G70" s="3" t="s">
+      <c r="F70" s="34" t="s">
         <v>253</v>
       </c>
-      <c r="H70" s="3" t="s">
+      <c r="G70" s="34" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="71" spans="2:8" ht="28.7">
-      <c r="B71" s="2" t="s">
+      <c r="H70" s="33"/>
+    </row>
+    <row r="71" spans="1:8" ht="29">
+      <c r="A71" s="33" t="s">
         <v>250</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="B71" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="C71" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E71" s="2" t="s">
+      <c r="D71" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="F71" s="3" t="s">
+      <c r="E71" s="34" t="s">
         <v>252</v>
       </c>
-      <c r="G71" s="3" t="s">
+      <c r="F71" s="34" t="s">
         <v>255</v>
       </c>
-      <c r="H71" s="3" t="s">
+      <c r="G71" s="34" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="72" spans="2:8" ht="75.75" customHeight="1">
-      <c r="B72" s="2" t="s">
+      <c r="H71" s="33"/>
+    </row>
+    <row r="72" spans="1:8" ht="75.75" customHeight="1">
+      <c r="A72" s="33" t="s">
         <v>250</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="B72" s="33" t="s">
         <v>257</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="C72" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E72" s="2" t="s">
+      <c r="D72" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="F72" s="3" t="s">
+      <c r="E72" s="34" t="s">
         <v>252</v>
       </c>
-      <c r="G72" s="3" t="s">
+      <c r="F72" s="34" t="s">
         <v>258</v>
       </c>
-      <c r="H72" s="3" t="s">
+      <c r="G72" s="34" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="73" spans="2:8" ht="59.25" customHeight="1">
-      <c r="B73" s="2" t="s">
+      <c r="H72" s="33"/>
+    </row>
+    <row r="73" spans="1:8" ht="59.25" customHeight="1">
+      <c r="A73" s="33" t="s">
         <v>260</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="B73" s="33" t="s">
         <v>261</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="C73" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="E73" s="2" t="s">
+      <c r="D73" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="F73" s="3" t="s">
+      <c r="E73" s="34" t="s">
         <v>262</v>
       </c>
-      <c r="G73" s="3" t="s">
+      <c r="F73" s="34" t="s">
         <v>263</v>
       </c>
-      <c r="H73" s="3" t="s">
+      <c r="G73" s="34" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="74" spans="2:8" ht="73.5" customHeight="1">
-      <c r="B74" s="2" t="s">
+      <c r="H73" s="33"/>
+    </row>
+    <row r="74" spans="1:8" ht="73.5" customHeight="1">
+      <c r="A74" s="33" t="s">
         <v>260</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="B74" s="33" t="s">
         <v>265</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="C74" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="E74" s="2" t="s">
+      <c r="D74" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="F74" s="3" t="s">
+      <c r="E74" s="34" t="s">
         <v>266</v>
       </c>
-      <c r="G74" s="3" t="s">
+      <c r="F74" s="34" t="s">
         <v>267</v>
       </c>
-      <c r="H74" s="3"/>
-    </row>
-    <row r="75" spans="2:8" ht="74.25" customHeight="1">
-      <c r="B75" s="2" t="s">
+      <c r="G74" s="34"/>
+      <c r="H74" s="33"/>
+    </row>
+    <row r="75" spans="1:8" ht="74.25" customHeight="1">
+      <c r="A75" s="33" t="s">
         <v>260</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="B75" s="33" t="s">
         <v>268</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="C75" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="D75" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="F75" s="3" t="s">
+      <c r="E75" s="34" t="s">
         <v>269</v>
       </c>
-      <c r="G75" s="3" t="s">
+      <c r="F75" s="34" t="s">
         <v>270</v>
       </c>
-      <c r="H75" s="3"/>
-    </row>
-    <row r="76" spans="2:8" ht="60.75" customHeight="1">
-      <c r="B76" s="2" t="s">
+      <c r="G75" s="34"/>
+      <c r="H75" s="33"/>
+    </row>
+    <row r="76" spans="1:8" ht="60.75" customHeight="1">
+      <c r="A76" s="33" t="s">
         <v>271</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="B76" s="33" t="s">
         <v>272</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="C76" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E76" s="2" t="s">
+      <c r="D76" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="F76" s="3" t="s">
+      <c r="E76" s="34" t="s">
         <v>273</v>
       </c>
-      <c r="G76" s="3" t="s">
+      <c r="F76" s="34" t="s">
         <v>274</v>
       </c>
-      <c r="H76" s="3" t="s">
+      <c r="G76" s="34" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="77" spans="2:8" ht="47.25" customHeight="1">
-      <c r="B77" s="2" t="s">
+      <c r="H76" s="33"/>
+    </row>
+    <row r="77" spans="1:8" ht="47.25" customHeight="1">
+      <c r="A77" s="33" t="s">
         <v>271</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="B77" s="33" t="s">
         <v>276</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="C77" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E77" s="2" t="s">
+      <c r="D77" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="F77" s="3" t="s">
+      <c r="E77" s="34" t="s">
         <v>277</v>
       </c>
-      <c r="G77" s="3" t="s">
+      <c r="F77" s="34" t="s">
         <v>278</v>
       </c>
-      <c r="H77" s="3" t="s">
+      <c r="G77" s="34" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="78" spans="2:8" ht="59.25" customHeight="1">
-      <c r="B78" s="2" t="s">
+      <c r="H77" s="33"/>
+    </row>
+    <row r="78" spans="1:8" ht="59.25" customHeight="1">
+      <c r="A78" s="33" t="s">
         <v>271</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="B78" s="33" t="s">
         <v>280</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="C78" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E78" s="2" t="s">
+      <c r="D78" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="F78" s="3" t="s">
+      <c r="E78" s="34" t="s">
         <v>281</v>
       </c>
-      <c r="G78" s="3" t="s">
+      <c r="F78" s="34" t="s">
         <v>282</v>
       </c>
-      <c r="H78" s="3" t="s">
+      <c r="G78" s="34" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="79" spans="2:8" ht="48" customHeight="1">
-      <c r="B79" s="2" t="s">
+      <c r="H78" s="33"/>
+    </row>
+    <row r="79" spans="1:8" ht="48" customHeight="1">
+      <c r="A79" s="33" t="s">
         <v>271</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="B79" s="33" t="s">
         <v>284</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="C79" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E79" s="2" t="s">
+      <c r="D79" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="F79" s="3" t="s">
+      <c r="E79" s="34" t="s">
         <v>285</v>
       </c>
-      <c r="G79" s="3" t="s">
+      <c r="F79" s="34" t="s">
         <v>286</v>
       </c>
-      <c r="H79" s="3" t="s">
+      <c r="G79" s="34" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="80" spans="2:8" ht="28.95" customHeight="1">
-      <c r="B80" s="2" t="s">
+      <c r="H79" s="33"/>
+    </row>
+    <row r="80" spans="1:8" ht="29" customHeight="1">
+      <c r="A80" s="33" t="s">
         <v>271</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="B80" s="33" t="s">
         <v>288</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="C80" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E80" s="2" t="s">
+      <c r="D80" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="F80" s="3" t="s">
+      <c r="E80" s="34" t="s">
         <v>289</v>
       </c>
-      <c r="G80" s="3" t="s">
+      <c r="F80" s="34" t="s">
         <v>290</v>
       </c>
-      <c r="H80" s="3" t="s">
+      <c r="G80" s="34" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="81" spans="2:8" ht="47.25" customHeight="1">
-      <c r="B81" s="2" t="s">
+      <c r="H80" s="33"/>
+    </row>
+    <row r="81" spans="1:8" ht="47.25" customHeight="1">
+      <c r="A81" s="33" t="s">
         <v>271</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="B81" s="33" t="s">
         <v>292</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="C81" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E81" s="2" t="s">
+      <c r="D81" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="F81" s="3" t="s">
+      <c r="E81" s="34" t="s">
         <v>293</v>
       </c>
-      <c r="G81" s="3" t="s">
+      <c r="F81" s="34" t="s">
         <v>294</v>
       </c>
-      <c r="H81" s="3" t="s">
+      <c r="G81" s="34" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="82" spans="2:8" ht="45.75" customHeight="1">
-      <c r="B82" s="2" t="s">
+      <c r="H81" s="33"/>
+    </row>
+    <row r="82" spans="1:8" ht="45.75" customHeight="1">
+      <c r="A82" s="33" t="s">
         <v>225</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="B82" s="33" t="s">
         <v>284</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="C82" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E82" s="2" t="s">
+      <c r="D82" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="F82" s="3" t="s">
+      <c r="E82" s="34" t="s">
         <v>285</v>
       </c>
-      <c r="G82" s="3" t="s">
+      <c r="F82" s="34" t="s">
         <v>286</v>
       </c>
-      <c r="H82" s="3" t="s">
+      <c r="G82" s="34" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="83" spans="2:8" ht="45.75" customHeight="1">
-      <c r="B83" s="2" t="s">
+      <c r="H82" s="33"/>
+    </row>
+    <row r="83" spans="1:8" ht="45.75" customHeight="1">
+      <c r="A83" s="33" t="s">
         <v>225</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="B83" s="33" t="s">
         <v>296</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="C83" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E83" s="2" t="s">
+      <c r="D83" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="F83" s="3" t="s">
+      <c r="E83" s="34" t="s">
         <v>289</v>
       </c>
-      <c r="G83" s="3" t="s">
+      <c r="F83" s="34" t="s">
         <v>290</v>
       </c>
-      <c r="H83" s="3" t="s">
+      <c r="G83" s="34" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="84" spans="2:8" ht="47.25" customHeight="1">
-      <c r="B84" s="2" t="s">
+      <c r="H83" s="33"/>
+    </row>
+    <row r="84" spans="1:8" ht="47.25" customHeight="1">
+      <c r="A84" s="33" t="s">
         <v>225</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="B84" s="33" t="s">
         <v>292</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="C84" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E84" s="2" t="s">
+      <c r="D84" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="F84" s="3" t="s">
+      <c r="E84" s="34" t="s">
         <v>293</v>
       </c>
-      <c r="G84" s="3" t="s">
+      <c r="F84" s="34" t="s">
         <v>294</v>
       </c>
-      <c r="H84" s="3" t="s">
+      <c r="G84" s="34" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="85" spans="2:8" ht="28.7">
-      <c r="B85" s="2" t="s">
+      <c r="H84" s="33"/>
+    </row>
+    <row r="85" spans="1:8" ht="29">
+      <c r="A85" s="33" t="s">
         <v>297</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="B85" s="33" t="s">
         <v>298</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="C85" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E85" s="2" t="s">
+      <c r="D85" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="F85" s="3" t="s">
+      <c r="E85" s="34" t="s">
         <v>299</v>
       </c>
-      <c r="G85" s="3" t="s">
+      <c r="F85" s="34" t="s">
         <v>300</v>
       </c>
-      <c r="H85" s="3" t="s">
+      <c r="G85" s="34" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="86" spans="2:8" ht="28.7">
-      <c r="B86" s="2" t="s">
+      <c r="H85" s="33"/>
+    </row>
+    <row r="86" spans="1:8" ht="29">
+      <c r="A86" s="33" t="s">
         <v>297</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="B86" s="33" t="s">
         <v>302</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="C86" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E86" s="2" t="s">
+      <c r="D86" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="F86" s="3" t="s">
+      <c r="E86" s="34" t="s">
         <v>299</v>
       </c>
-      <c r="G86" s="3" t="s">
+      <c r="F86" s="34" t="s">
         <v>303</v>
       </c>
-      <c r="H86" s="3" t="s">
+      <c r="G86" s="34" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="87" spans="2:8" ht="28.7">
-      <c r="B87" s="2" t="s">
+      <c r="H86" s="33"/>
+    </row>
+    <row r="87" spans="1:8" ht="29">
+      <c r="A87" s="33" t="s">
         <v>297</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="B87" s="33" t="s">
         <v>304</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="C87" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E87" s="2" t="s">
+      <c r="D87" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="F87" s="3" t="s">
+      <c r="E87" s="34" t="s">
         <v>305</v>
       </c>
-      <c r="G87" s="3" t="s">
+      <c r="F87" s="34" t="s">
         <v>306</v>
       </c>
-      <c r="H87" s="3" t="s">
+      <c r="G87" s="34" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="88" spans="2:8" ht="43">
-      <c r="B88" s="2" t="s">
+      <c r="H87" s="33"/>
+    </row>
+    <row r="88" spans="1:8" ht="43.5">
+      <c r="A88" s="33" t="s">
         <v>297</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="B88" s="33" t="s">
         <v>307</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="C88" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E88" s="2" t="s">
+      <c r="D88" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="F88" s="3" t="s">
+      <c r="E88" s="34" t="s">
         <v>308</v>
       </c>
-      <c r="G88" s="3" t="s">
+      <c r="F88" s="34" t="s">
         <v>309</v>
       </c>
-      <c r="H88" s="3" t="s">
+      <c r="G88" s="34" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="89" spans="2:8" ht="28.7">
-      <c r="B89" s="2" t="s">
+      <c r="H88" s="33"/>
+    </row>
+    <row r="89" spans="1:8" ht="29">
+      <c r="A89" s="33" t="s">
         <v>297</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="B89" s="33" t="s">
         <v>311</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="C89" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E89" s="2" t="s">
+      <c r="D89" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="F89" s="3" t="s">
+      <c r="E89" s="34" t="s">
         <v>312</v>
       </c>
-      <c r="G89" s="3" t="s">
+      <c r="F89" s="34" t="s">
         <v>313</v>
       </c>
-      <c r="H89" s="3" t="s">
+      <c r="G89" s="34" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="90" spans="2:8" ht="46.5" customHeight="1">
-      <c r="B90" s="2" t="s">
+      <c r="H89" s="33"/>
+    </row>
+    <row r="90" spans="1:8" ht="46.5" customHeight="1">
+      <c r="A90" s="33" t="s">
         <v>297</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="B90" s="33" t="s">
         <v>315</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="C90" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E90" s="2" t="s">
+      <c r="D90" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="F90" s="3" t="s">
+      <c r="E90" s="34" t="s">
         <v>316</v>
       </c>
-      <c r="G90" s="3" t="s">
+      <c r="F90" s="34" t="s">
         <v>317</v>
       </c>
-      <c r="H90" s="3" t="s">
+      <c r="G90" s="34" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="91" spans="2:8" ht="45" customHeight="1">
-      <c r="B91" s="2" t="s">
+      <c r="H90" s="33"/>
+    </row>
+    <row r="91" spans="1:8" ht="45" customHeight="1">
+      <c r="A91" s="33" t="s">
         <v>319</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="B91" s="33" t="s">
         <v>320</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="C91" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="E91" s="2" t="s">
+      <c r="D91" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="F91" s="3" t="s">
+      <c r="E91" s="34" t="s">
         <v>321</v>
       </c>
-      <c r="G91" s="3" t="s">
+      <c r="F91" s="34" t="s">
         <v>322</v>
       </c>
-      <c r="H91" s="3" t="s">
+      <c r="G91" s="34" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="92" spans="2:8" ht="46.5" customHeight="1">
-      <c r="B92" s="2" t="s">
+      <c r="H91" s="33"/>
+    </row>
+    <row r="92" spans="1:8" ht="46.5" customHeight="1">
+      <c r="A92" s="33" t="s">
         <v>319</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="B92" s="33" t="s">
         <v>320</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="C92" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="E92" s="2" t="s">
+      <c r="D92" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="F92" s="3" t="s">
+      <c r="E92" s="34" t="s">
         <v>321</v>
       </c>
-      <c r="G92" s="3" t="s">
+      <c r="F92" s="34" t="s">
         <v>322</v>
       </c>
-      <c r="H92" s="3" t="s">
+      <c r="G92" s="34" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="93" spans="2:8" ht="45" customHeight="1">
-      <c r="B93" s="2" t="s">
+      <c r="H92" s="33"/>
+    </row>
+    <row r="93" spans="1:8" ht="45" customHeight="1">
+      <c r="A93" s="33" t="s">
         <v>319</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="B93" s="33" t="s">
         <v>320</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="C93" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E93" s="2" t="s">
+      <c r="D93" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="F93" s="3" t="s">
+      <c r="E93" s="34" t="s">
         <v>321</v>
       </c>
-      <c r="G93" s="3" t="s">
+      <c r="F93" s="34" t="s">
         <v>322</v>
       </c>
-      <c r="H93" s="3" t="s">
+      <c r="G93" s="34" t="s">
         <v>323</v>
       </c>
+      <c r="H93" s="33"/>
     </row>
   </sheetData>
+  <autoFilter ref="A4:H4" xr:uid="{7298EEFA-59C4-4AD7-95DB-7BE82B31C276}"/>
   <mergeCells count="1">
-    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="A2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5070,21 +5407,21 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="25.46875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.46875" customWidth="1"/>
-    <col min="4" max="4" width="16.29296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="1" t="s">
         <v>325</v>
       </c>
     </row>
@@ -5128,2981 +5465,3813 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC044460-1ABD-4816-A33E-F88851E3268F}">
-  <dimension ref="B1:F158"/>
+  <dimension ref="A1:F150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D140" sqref="D140"/>
+      <selection activeCell="A4" sqref="A4:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="79.52734375" customWidth="1"/>
-    <col min="3" max="3" width="15.52734375" customWidth="1"/>
-    <col min="4" max="4" width="67.8203125" customWidth="1"/>
-    <col min="5" max="5" width="18.703125" style="10" customWidth="1"/>
-    <col min="6" max="6" width="157.29296875" customWidth="1"/>
-    <col min="7" max="7" width="9.29296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="79.54296875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.54296875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="67.81640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.7265625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="157.26953125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6">
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="2" spans="2:6">
-      <c r="B2" s="15" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="B4" s="6" t="s">
+      <c r="B2" s="6"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" thickBot="1"/>
+    <row r="4" spans="1:6" ht="15" thickBot="1">
+      <c r="A4" s="24" t="s">
+        <v>821</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>820</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>337</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>338</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>339</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="20" t="s">
         <v>336</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="21" t="s">
         <v>340</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="21" t="s">
         <v>341</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="21" t="s">
         <v>342</v>
       </c>
-      <c r="E5" s="12" t="b">
+      <c r="E5" s="22" t="b">
         <v>1</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="23" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
-      <c r="B6" t="s">
+    <row r="6" spans="1:6">
+      <c r="A6" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="9" t="s">
         <v>345</v>
       </c>
       <c r="E6" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="14" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
-      <c r="B7" t="s">
+    <row r="7" spans="1:6">
+      <c r="A7" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="9" t="s">
         <v>348</v>
       </c>
       <c r="E7" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="14" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
-      <c r="B8" t="s">
+    <row r="8" spans="1:6">
+      <c r="A8" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>350</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="9" t="s">
         <v>351</v>
       </c>
       <c r="E8" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="14" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="1" t="s">
+    <row r="9" spans="1:6">
+      <c r="A9" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="E9" s="12" t="b">
+      <c r="E9" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="14" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="10" spans="2:6">
-      <c r="B10" t="s">
+    <row r="10" spans="1:6">
+      <c r="A10" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="9" t="s">
         <v>357</v>
       </c>
       <c r="E10" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="14" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="11" spans="2:6">
-      <c r="B11" t="s">
+    <row r="11" spans="1:6">
+      <c r="A11" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>359</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="9" t="s">
         <v>360</v>
       </c>
       <c r="E11" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="14" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="12" spans="2:6">
-      <c r="B12" t="s">
+    <row r="12" spans="1:6">
+      <c r="A12" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="9" t="s">
         <v>363</v>
       </c>
       <c r="E12" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="14" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="13" spans="2:6">
-      <c r="B13" t="s">
+    <row r="13" spans="1:6">
+      <c r="A13" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="9" t="s">
         <v>366</v>
       </c>
       <c r="E13" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="14" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="14" spans="2:6">
-      <c r="B14" s="1" t="s">
+    <row r="14" spans="1:6">
+      <c r="A14" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="E14" s="12" t="b">
+      <c r="E14" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="14" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="15" spans="2:6">
-      <c r="B15" t="s">
+    <row r="15" spans="1:6">
+      <c r="A15" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="9" t="s">
         <v>372</v>
       </c>
       <c r="E15" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="14" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="16" spans="2:6">
-      <c r="B16" t="s">
+    <row r="16" spans="1:6">
+      <c r="A16" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>374</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="9" t="s">
         <v>375</v>
       </c>
       <c r="E16" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="14" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="17" spans="2:6">
-      <c r="B17" t="s">
+    <row r="17" spans="1:6">
+      <c r="A17" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="9" t="s">
         <v>378</v>
       </c>
       <c r="E17" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="14" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="18" spans="2:6">
-      <c r="B18" t="s">
+    <row r="18" spans="1:6">
+      <c r="A18" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>380</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="9" t="s">
         <v>381</v>
       </c>
       <c r="E18" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="14" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="19" spans="2:6">
-      <c r="B19" t="s">
+    <row r="19" spans="1:6">
+      <c r="A19" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="9" t="s">
         <v>384</v>
       </c>
       <c r="E19" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="14" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
-      <c r="B20" t="s">
+    <row r="20" spans="1:6">
+      <c r="A20" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="9" t="s">
         <v>387</v>
       </c>
       <c r="E20" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="14" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="21" spans="2:6">
-      <c r="B21" t="s">
+    <row r="21" spans="1:6">
+      <c r="A21" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>389</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="9" t="s">
         <v>390</v>
       </c>
       <c r="E21" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="14" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="22" spans="2:6">
-      <c r="B22" t="s">
+    <row r="22" spans="1:6">
+      <c r="A22" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="9" t="s">
         <v>393</v>
       </c>
       <c r="E22" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="14" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="6" t="s">
+    <row r="23" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A23" s="13" t="s">
         <v>395</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" ht="13.5" customHeight="1">
-      <c r="B25" t="s">
+      <c r="B23" s="9" t="s">
         <v>396</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C23" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D23" s="9" t="s">
         <v>348</v>
       </c>
+      <c r="E23" s="10">
+        <v>1000</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="E24" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>351</v>
+      </c>
       <c r="E25" s="10">
-        <v>1000</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="B26" t="s">
-        <v>399</v>
-      </c>
-      <c r="C26" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="E26" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="E27" s="10">
+        <v>1</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="C28" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="D26" t="s">
-        <v>351</v>
-      </c>
-      <c r="E26" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="F26" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="B27" t="s">
-        <v>401</v>
-      </c>
-      <c r="C27" t="s">
-        <v>402</v>
-      </c>
-      <c r="D27" t="s">
-        <v>351</v>
-      </c>
-      <c r="E27" s="10">
-        <v>0</v>
-      </c>
-      <c r="F27" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="B28" t="s">
-        <v>404</v>
-      </c>
-      <c r="C28" t="s">
-        <v>402</v>
-      </c>
       <c r="D28" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="E28" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="F28" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6">
-      <c r="B29" t="s">
-        <v>406</v>
-      </c>
-      <c r="C29" t="s">
-        <v>407</v>
-      </c>
-      <c r="D29" t="s">
-        <v>366</v>
+        <v>369</v>
+      </c>
+      <c r="E28" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>363</v>
       </c>
       <c r="E29" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="E30" s="10">
+        <v>0.95</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="E31" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6">
-      <c r="B30" t="s">
-        <v>409</v>
-      </c>
-      <c r="C30" t="s">
-        <v>397</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="E30" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="F30" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6">
-      <c r="B31" t="s">
-        <v>411</v>
-      </c>
-      <c r="C31" t="s">
-        <v>397</v>
-      </c>
-      <c r="D31" t="s">
-        <v>363</v>
-      </c>
-      <c r="E31" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="F31" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6">
-      <c r="B32" t="s">
-        <v>413</v>
-      </c>
-      <c r="C32" t="s">
-        <v>397</v>
-      </c>
-      <c r="D32" t="s">
-        <v>390</v>
+      <c r="F31" s="14" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>417</v>
       </c>
       <c r="E32" s="10">
-        <v>0.95</v>
-      </c>
-      <c r="F32" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6">
-      <c r="B34" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="E34" s="11"/>
-      <c r="F34" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6">
-      <c r="B35" t="s">
+        <v>90</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="D33" s="9" t="s">
         <v>417</v>
       </c>
-      <c r="C35" t="s">
-        <v>341</v>
-      </c>
-      <c r="D35" t="s">
-        <v>418</v>
-      </c>
-      <c r="E35" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F35" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6">
-      <c r="B36" t="s">
-        <v>420</v>
-      </c>
-      <c r="C36" t="s">
-        <v>421</v>
-      </c>
-      <c r="D36" t="s">
-        <v>418</v>
-      </c>
+      <c r="E33" s="10">
+        <v>95</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="E34" s="10">
+        <v>300000</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="D35" s="9"/>
+      <c r="E35" s="10">
+        <v>150000</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="D36" s="9"/>
       <c r="E36" s="10">
-        <v>90</v>
-      </c>
-      <c r="F36" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6">
-      <c r="B37" t="s">
-        <v>423</v>
-      </c>
-      <c r="C37" t="s">
-        <v>421</v>
-      </c>
-      <c r="D37" t="s">
-        <v>418</v>
-      </c>
+        <v>600000</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="D37" s="9"/>
       <c r="E37" s="10">
-        <v>95</v>
-      </c>
-      <c r="F37" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6">
-      <c r="B38" t="s">
+        <v>600000</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="C38" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="C38" t="s">
-        <v>426</v>
-      </c>
-      <c r="D38" t="s">
-        <v>418</v>
-      </c>
+      <c r="D38" s="9"/>
       <c r="E38" s="10">
-        <v>300000</v>
-      </c>
-      <c r="F38" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6">
-      <c r="B39" t="s">
-        <v>428</v>
-      </c>
-      <c r="C39" t="s">
-        <v>426</v>
-      </c>
+        <v>1800000</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="D39" s="9"/>
       <c r="E39" s="10">
-        <v>150000</v>
-      </c>
-      <c r="F39" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6">
-      <c r="B40" t="s">
-        <v>430</v>
-      </c>
-      <c r="C40" t="s">
-        <v>426</v>
-      </c>
+        <v>900000</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="D40" s="9"/>
       <c r="E40" s="10">
-        <v>600000</v>
-      </c>
-      <c r="F40" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6">
-      <c r="B41" t="s">
-        <v>432</v>
-      </c>
-      <c r="C41" t="s">
-        <v>426</v>
-      </c>
+        <v>1800000</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="D41" s="9"/>
       <c r="E41" s="10">
         <v>600000</v>
       </c>
-      <c r="F41" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6">
-      <c r="B42" t="s">
-        <v>434</v>
-      </c>
-      <c r="C42" t="s">
-        <v>426</v>
-      </c>
+      <c r="F41" s="14" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="D42" s="9"/>
       <c r="E42" s="10">
-        <v>1800000</v>
-      </c>
-      <c r="F42" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6">
-      <c r="B43" t="s">
-        <v>436</v>
-      </c>
-      <c r="C43" t="s">
-        <v>426</v>
-      </c>
+        <v>600000</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="D43" s="9"/>
       <c r="E43" s="10">
+        <v>60000</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="D44" s="9"/>
+      <c r="E44" s="10">
         <v>900000</v>
       </c>
-      <c r="F43" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6">
-      <c r="B44" t="s">
-        <v>438</v>
-      </c>
-      <c r="C44" t="s">
-        <v>426</v>
-      </c>
-      <c r="E44" s="10">
-        <v>1800000</v>
-      </c>
-      <c r="F44" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6">
-      <c r="B45" t="s">
-        <v>440</v>
-      </c>
-      <c r="C45" t="s">
-        <v>426</v>
-      </c>
-      <c r="E45" s="10">
-        <v>600000</v>
-      </c>
-      <c r="F45" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6">
-      <c r="B46" t="s">
-        <v>442</v>
-      </c>
-      <c r="C46" t="s">
-        <v>426</v>
-      </c>
+      <c r="F44" s="14" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="D45" s="9"/>
+      <c r="E45" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="D46" s="9"/>
       <c r="E46" s="10">
-        <v>600000</v>
-      </c>
-      <c r="F46" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6">
-      <c r="B47" t="s">
-        <v>444</v>
-      </c>
-      <c r="C47" t="s">
-        <v>426</v>
-      </c>
-      <c r="E47" s="10">
-        <v>60000</v>
-      </c>
-      <c r="F47" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6">
-      <c r="B48" t="s">
-        <v>446</v>
-      </c>
-      <c r="C48" t="s">
-        <v>426</v>
-      </c>
-      <c r="E48" s="10">
-        <v>900000</v>
-      </c>
-      <c r="F48" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6">
-      <c r="B49" t="s">
-        <v>448</v>
-      </c>
-      <c r="C49" t="s">
+        <v>360000</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="C47" s="9" t="s">
         <v>341</v>
       </c>
+      <c r="D47" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="E47" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F47" s="14" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="E48" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="D49" s="9"/>
       <c r="E49" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="F49" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6">
-      <c r="B50" t="s">
-        <v>450</v>
-      </c>
-      <c r="C50" t="s">
-        <v>426</v>
-      </c>
+      <c r="F49" s="14" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="D50" s="9"/>
       <c r="E50" s="10">
+        <v>900000</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="D51" s="9"/>
+      <c r="E51" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F51" s="14" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="D52" s="9"/>
+      <c r="E52" s="10">
         <v>360000</v>
       </c>
-      <c r="F50" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6">
-      <c r="B51" t="s">
-        <v>452</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="F52" s="14" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="C53" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="D51" t="s">
-        <v>453</v>
-      </c>
-      <c r="E51" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F51" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6">
-      <c r="B52" t="s">
-        <v>455</v>
-      </c>
-      <c r="C52" t="s">
-        <v>341</v>
-      </c>
-      <c r="D52" t="s">
-        <v>456</v>
-      </c>
-      <c r="E52" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F52" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6">
-      <c r="B53" t="s">
-        <v>458</v>
-      </c>
-      <c r="C53" t="s">
-        <v>341</v>
-      </c>
+      <c r="D53" s="9"/>
       <c r="E53" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="F53" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6">
-      <c r="B54" t="s">
-        <v>460</v>
-      </c>
-      <c r="C54" t="s">
-        <v>426</v>
-      </c>
+      <c r="F53" s="14" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="D54" s="9"/>
       <c r="E54" s="10">
         <v>900000</v>
       </c>
-      <c r="F54" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6">
-      <c r="B55" t="s">
-        <v>462</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="F54" s="15" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="D55" s="9"/>
+      <c r="E55" s="10">
+        <v>60000</v>
+      </c>
+      <c r="F55" s="14" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="C56" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="E55" s="10" t="b">
+      <c r="D56" s="9"/>
+      <c r="E56" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="F55" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6">
-      <c r="B56" t="s">
-        <v>464</v>
-      </c>
-      <c r="C56" t="s">
-        <v>426</v>
-      </c>
-      <c r="E56" s="10">
-        <v>360000</v>
-      </c>
-      <c r="F56" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6">
-      <c r="B57" t="s">
-        <v>466</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="F56" s="14" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="C57" s="9" t="s">
         <v>341</v>
       </c>
+      <c r="D57" s="9"/>
       <c r="E57" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="F57" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6">
-      <c r="B58" t="s">
-        <v>468</v>
-      </c>
-      <c r="C58" t="s">
-        <v>426</v>
-      </c>
-      <c r="E58" s="10">
-        <v>900000</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6">
-      <c r="B59" t="s">
-        <v>470</v>
-      </c>
-      <c r="C59" t="s">
-        <v>426</v>
-      </c>
-      <c r="E59" s="10">
-        <v>60000</v>
-      </c>
-      <c r="F59" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6">
-      <c r="B60" t="s">
-        <v>472</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="F57" s="14" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="C58" s="9" t="s">
         <v>341</v>
       </c>
+      <c r="D58" s="9"/>
+      <c r="E58" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F58" s="14" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="D59" s="9"/>
+      <c r="E59" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F59" s="14" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="D60" s="9"/>
       <c r="E60" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="F60" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6">
-      <c r="B61" t="s">
-        <v>474</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="F60" s="14" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="D61" s="9"/>
+      <c r="E61" s="10">
+        <v>3600000</v>
+      </c>
+      <c r="F61" s="14" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D62" s="9"/>
+      <c r="E62" s="10">
+        <v>10</v>
+      </c>
+      <c r="F62" s="15" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="C63" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="E61" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F61" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6">
-      <c r="B62" t="s">
-        <v>476</v>
-      </c>
-      <c r="C62" t="s">
-        <v>341</v>
-      </c>
-      <c r="E62" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F62" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6">
-      <c r="B63" t="s">
-        <v>478</v>
-      </c>
-      <c r="C63" t="s">
-        <v>341</v>
-      </c>
+      <c r="D63" s="9"/>
       <c r="E63" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="F63" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6">
-      <c r="B64" t="s">
-        <v>480</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="F63" s="14" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="D64" s="9"/>
+      <c r="E64" s="10">
+        <v>60000</v>
+      </c>
+      <c r="F64" s="14" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="D65" s="9"/>
+      <c r="E65" s="10">
+        <v>900000</v>
+      </c>
+      <c r="F65" s="14" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="C66" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="E64" s="10" t="b">
+      <c r="D66" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="E66" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F66" s="14" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="D67" s="9"/>
+      <c r="E67" s="10">
+        <v>0</v>
+      </c>
+      <c r="F67" s="14" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="D68" s="9"/>
+      <c r="E68" s="10">
+        <v>300</v>
+      </c>
+      <c r="F68" s="14" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="D69" s="9"/>
+      <c r="E69" s="10">
+        <v>3600</v>
+      </c>
+      <c r="F69" s="14" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="E70" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="F64" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6">
-      <c r="B65" t="s">
-        <v>482</v>
-      </c>
-      <c r="C65" t="s">
-        <v>426</v>
-      </c>
-      <c r="E65" s="10">
-        <v>3600000</v>
-      </c>
-      <c r="F65" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6">
-      <c r="B66" t="s">
-        <v>484</v>
-      </c>
-      <c r="C66" t="s">
-        <v>485</v>
-      </c>
-      <c r="E66" s="10">
-        <v>10</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6">
-      <c r="B67" t="s">
-        <v>487</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="F70" s="14" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="C71" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="E67" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F67" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6">
-      <c r="B68" t="s">
-        <v>489</v>
-      </c>
-      <c r="C68" t="s">
-        <v>426</v>
-      </c>
-      <c r="E68" s="10">
+      <c r="D71" s="9"/>
+      <c r="E71" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F71" s="14" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="D72" s="9"/>
+      <c r="E72" s="10">
+        <v>1800000</v>
+      </c>
+      <c r="F72" s="14" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="D73" s="9"/>
+      <c r="E73" s="10">
         <v>60000</v>
       </c>
-      <c r="F68" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6">
-      <c r="B69" t="s">
-        <v>491</v>
-      </c>
-      <c r="C69" t="s">
-        <v>426</v>
-      </c>
-      <c r="E69" s="10">
-        <v>900000</v>
-      </c>
-      <c r="F69" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6">
-      <c r="B70" t="s">
-        <v>493</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="F73" s="14" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="C74" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="D70" t="s">
-        <v>494</v>
-      </c>
-      <c r="E70" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F70" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6">
-      <c r="B71" t="s">
-        <v>496</v>
-      </c>
-      <c r="C71" t="s">
-        <v>497</v>
-      </c>
-      <c r="E71" s="10">
-        <v>0</v>
-      </c>
-      <c r="F71" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6">
-      <c r="B72" t="s">
-        <v>499</v>
-      </c>
-      <c r="C72" t="s">
-        <v>500</v>
-      </c>
-      <c r="E72" s="10">
-        <v>300</v>
-      </c>
-      <c r="F72" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="73" spans="2:6">
-      <c r="B73" t="s">
-        <v>502</v>
-      </c>
-      <c r="C73" t="s">
-        <v>500</v>
-      </c>
-      <c r="E73" s="10">
-        <v>3600</v>
-      </c>
-      <c r="F73" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="74" spans="2:6">
-      <c r="B74" t="s">
-        <v>504</v>
-      </c>
-      <c r="C74" t="s">
-        <v>341</v>
-      </c>
-      <c r="D74" t="s">
-        <v>505</v>
-      </c>
+      <c r="D74" s="9"/>
       <c r="E74" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="F74" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="75" spans="2:6">
-      <c r="B75" t="s">
-        <v>507</v>
-      </c>
-      <c r="C75" t="s">
+      <c r="F74" s="14" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="C75" s="9" t="s">
         <v>341</v>
       </c>
+      <c r="D75" s="9" t="s">
+        <v>515</v>
+      </c>
       <c r="E75" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F75" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="76" spans="2:6">
-      <c r="B76" t="s">
-        <v>509</v>
-      </c>
-      <c r="C76" t="s">
-        <v>426</v>
-      </c>
-      <c r="E76" s="10">
-        <v>1800000</v>
-      </c>
-      <c r="F76" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="77" spans="2:6">
-      <c r="B77" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="C77" t="s">
-        <v>426</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F75" s="14" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="E76" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F76" s="14" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="D77" s="9"/>
       <c r="E77" s="10">
-        <v>60000</v>
-      </c>
-      <c r="F77" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="78" spans="2:6">
-      <c r="B78" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="C78" t="s">
+        <v>900000</v>
+      </c>
+      <c r="F77" s="14" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="D78" s="9"/>
+      <c r="E78" s="10">
+        <v>86400000</v>
+      </c>
+      <c r="F78" s="14" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="D79" s="9"/>
+      <c r="E79" s="10">
+        <v>2</v>
+      </c>
+      <c r="F79" s="14" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="C80" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="E78" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F78" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="79" spans="2:6">
-      <c r="B79" t="s">
-        <v>515</v>
-      </c>
-      <c r="C79" t="s">
-        <v>341</v>
-      </c>
-      <c r="D79" t="s">
-        <v>516</v>
-      </c>
-      <c r="E79" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F79" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="80" spans="2:6">
-      <c r="B80" t="s">
-        <v>518</v>
-      </c>
-      <c r="C80" t="s">
-        <v>341</v>
-      </c>
-      <c r="D80" s="7" t="s">
-        <v>519</v>
-      </c>
+      <c r="D80" s="9"/>
       <c r="E80" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="F80" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="81" spans="2:6">
-      <c r="B81" t="s">
-        <v>521</v>
-      </c>
-      <c r="C81" t="s">
-        <v>426</v>
-      </c>
+      <c r="F80" s="14" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="D81" s="9"/>
       <c r="E81" s="10">
-        <v>900000</v>
-      </c>
-      <c r="F81" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="82" spans="2:6">
-      <c r="B82" t="s">
-        <v>523</v>
-      </c>
-      <c r="C82" t="s">
-        <v>426</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F81" s="14" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>531</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="D82" s="9"/>
       <c r="E82" s="10">
-        <v>86400000</v>
-      </c>
-      <c r="F82" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="83" spans="2:6">
-      <c r="B83" t="s">
-        <v>525</v>
-      </c>
-      <c r="C83" t="s">
-        <v>526</v>
-      </c>
-      <c r="E83" s="10">
-        <v>2</v>
-      </c>
-      <c r="F83" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="84" spans="2:6">
-      <c r="B84" t="s">
-        <v>528</v>
-      </c>
-      <c r="C84" t="s">
+        <v>21600</v>
+      </c>
+      <c r="F82" s="14" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>533</v>
+      </c>
+      <c r="C83" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="E84" s="10" t="b">
+      <c r="D83" s="9"/>
+      <c r="E83" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F83" s="14" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A84" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="D84" s="9"/>
+      <c r="E84" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="F84" s="15" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A85" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="D85" s="9"/>
+      <c r="E85" s="10" t="s">
+        <v>540</v>
+      </c>
+      <c r="F85" s="15" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="15" customHeight="1">
+      <c r="A86" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="D86" s="9"/>
+      <c r="E86" s="8" t="s">
+        <v>544</v>
+      </c>
+      <c r="F86" s="15" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="D87" s="9"/>
+      <c r="E87" s="10">
+        <v>60000</v>
+      </c>
+      <c r="F87" s="14" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>548</v>
+      </c>
+      <c r="C88" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="D88" s="9"/>
+      <c r="E88" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="F84" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="85" spans="2:6">
-      <c r="B85" t="s">
-        <v>530</v>
-      </c>
-      <c r="C85" t="s">
-        <v>497</v>
-      </c>
-      <c r="E85" s="10">
-        <v>3</v>
-      </c>
-      <c r="F85" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="86" spans="2:6">
-      <c r="B86" t="s">
-        <v>532</v>
-      </c>
-      <c r="C86" t="s">
-        <v>500</v>
-      </c>
-      <c r="E86" s="10">
-        <v>21600</v>
-      </c>
-      <c r="F86" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="87" spans="2:6">
-      <c r="B87" t="s">
-        <v>534</v>
-      </c>
-      <c r="C87" t="s">
+      <c r="F88" s="14" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="C89" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="E87" s="10" t="b">
+      <c r="D89" s="9"/>
+      <c r="E89" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F89" s="14" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="D90" s="9"/>
+      <c r="E90" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F90" s="14" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="D91" s="9"/>
+      <c r="E91" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F87" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="88" spans="2:6" ht="16.5" customHeight="1">
-      <c r="B88" t="s">
-        <v>536</v>
-      </c>
-      <c r="C88" t="s">
-        <v>537</v>
-      </c>
-      <c r="E88" s="12" t="s">
-        <v>538</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="89" spans="2:6" ht="16.5" customHeight="1">
-      <c r="B89" t="s">
-        <v>540</v>
-      </c>
-      <c r="C89" t="s">
-        <v>537</v>
-      </c>
-      <c r="E89" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="90" spans="2:6" ht="15" customHeight="1">
-      <c r="B90" t="s">
-        <v>543</v>
-      </c>
-      <c r="C90" t="s">
-        <v>544</v>
-      </c>
-      <c r="E90" s="12" t="s">
-        <v>545</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="91" spans="2:6">
-      <c r="B91" t="s">
-        <v>547</v>
-      </c>
-      <c r="C91" t="s">
-        <v>426</v>
-      </c>
-      <c r="E91" s="10">
-        <v>60000</v>
-      </c>
-      <c r="F91" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="92" spans="2:6">
-      <c r="B92" t="s">
-        <v>549</v>
-      </c>
-      <c r="C92" t="s">
+      <c r="F91" s="14" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>556</v>
+      </c>
+      <c r="C92" s="9" t="s">
         <v>341</v>
       </c>
+      <c r="D92" s="9"/>
       <c r="E92" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="F92" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="93" spans="2:6">
-      <c r="B93" t="s">
-        <v>551</v>
-      </c>
-      <c r="C93" t="s">
+      <c r="F92" s="14" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="D93" s="9"/>
+      <c r="E93" s="10">
+        <v>60000</v>
+      </c>
+      <c r="F93" s="14" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="C94" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="E93" s="10" t="b">
+      <c r="D94" s="9"/>
+      <c r="E94" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F94" s="14" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>561</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="D95" s="9"/>
+      <c r="E95" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="F93" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="94" spans="2:6">
-      <c r="B94" t="s">
-        <v>553</v>
-      </c>
-      <c r="C94" t="s">
+      <c r="F95" s="14" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="C96" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="E94" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F94" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="95" spans="2:6">
-      <c r="B95" t="s">
-        <v>555</v>
-      </c>
-      <c r="C95" t="s">
-        <v>341</v>
-      </c>
-      <c r="E95" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F95" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="96" spans="2:6">
-      <c r="B96" t="s">
-        <v>557</v>
-      </c>
-      <c r="C96" t="s">
-        <v>341</v>
-      </c>
+      <c r="D96" s="9"/>
       <c r="E96" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="F96" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="97" spans="2:6">
-      <c r="B97" t="s">
-        <v>559</v>
-      </c>
-      <c r="C97" t="s">
-        <v>426</v>
-      </c>
-      <c r="E97" s="10">
-        <v>60000</v>
-      </c>
-      <c r="F97" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="98" spans="2:6">
-      <c r="B98" t="s">
-        <v>561</v>
-      </c>
-      <c r="C98" t="s">
+      <c r="F96" s="14" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="D97" s="9"/>
+      <c r="E97" s="10" t="s">
+        <v>566</v>
+      </c>
+      <c r="F97" s="14" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="D98" s="9"/>
+      <c r="E98" s="10" t="s">
+        <v>569</v>
+      </c>
+      <c r="F98" s="14" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>571</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="D99" s="9"/>
+      <c r="E99" s="10">
+        <v>1</v>
+      </c>
+      <c r="F99" s="14" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="D100" s="9"/>
+      <c r="E100" s="10">
+        <v>3</v>
+      </c>
+      <c r="F100" s="14" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="D101" s="9"/>
+      <c r="E101" s="10">
+        <v>1800000</v>
+      </c>
+      <c r="F101" s="14" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>577</v>
+      </c>
+      <c r="C102" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="E98" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F98" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="99" spans="2:6">
-      <c r="B99" t="s">
-        <v>562</v>
-      </c>
-      <c r="C99" t="s">
+      <c r="D102" s="9"/>
+      <c r="E102" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F102" s="14" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>579</v>
+      </c>
+      <c r="C103" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="E99" s="10" t="b">
+      <c r="D103" s="9"/>
+      <c r="E103" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="F99" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="100" spans="2:6">
-      <c r="B100" t="s">
-        <v>564</v>
-      </c>
-      <c r="C100" t="s">
+      <c r="F103" s="14" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="C104" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="E100" s="10" t="b">
+      <c r="D104" s="9"/>
+      <c r="E104" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="F100" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="101" spans="2:6">
-      <c r="B101" t="s">
-        <v>566</v>
-      </c>
-      <c r="C101" t="s">
-        <v>500</v>
-      </c>
-      <c r="E101" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="F101" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="102" spans="2:6">
-      <c r="B102" t="s">
-        <v>569</v>
-      </c>
-      <c r="C102" t="s">
-        <v>500</v>
-      </c>
-      <c r="E102" s="10" t="s">
-        <v>570</v>
-      </c>
-      <c r="F102" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="103" spans="2:6">
-      <c r="B103" t="s">
-        <v>572</v>
-      </c>
-      <c r="C103" t="s">
-        <v>421</v>
-      </c>
-      <c r="E103" s="10">
+      <c r="F104" s="14" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>583</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>584</v>
+      </c>
+      <c r="D105" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="E105" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="F103" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="104" spans="2:6">
-      <c r="B104" t="s">
-        <v>574</v>
-      </c>
-      <c r="C104" t="s">
-        <v>497</v>
-      </c>
-      <c r="E104" s="10">
+      <c r="F105" s="14" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>586</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="D106" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="E106" s="10">
         <v>3</v>
       </c>
-      <c r="F104" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="105" spans="2:6">
-      <c r="B105" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="C105" t="s">
-        <v>426</v>
-      </c>
-      <c r="E105" s="10">
-        <v>1800000</v>
-      </c>
-      <c r="F105" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="106" spans="2:6">
-      <c r="B106" t="s">
-        <v>578</v>
-      </c>
-      <c r="C106" t="s">
-        <v>341</v>
-      </c>
-      <c r="E106" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F106" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="107" spans="2:6">
-      <c r="B107" t="s">
-        <v>580</v>
-      </c>
-      <c r="C107" t="s">
-        <v>341</v>
-      </c>
+      <c r="F106" s="14" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>584</v>
+      </c>
+      <c r="D107" s="9"/>
       <c r="E107" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="F107" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="108" spans="2:6">
-      <c r="B108" t="s">
-        <v>582</v>
-      </c>
-      <c r="C108" t="s">
-        <v>341</v>
-      </c>
-      <c r="E108" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F108" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="109" spans="2:6">
-      <c r="B109" t="s">
+      <c r="F107" s="14" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>590</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="D108" s="9"/>
+      <c r="E108" s="10">
+        <v>300</v>
+      </c>
+      <c r="F108" s="14" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>592</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="D109" s="9"/>
+      <c r="E109" s="10">
+        <v>3</v>
+      </c>
+      <c r="F109" s="14" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="C110" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="D110" s="9"/>
+      <c r="E110" s="10">
+        <v>3600</v>
+      </c>
+      <c r="F110" s="14" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>596</v>
+      </c>
+      <c r="C111" s="9" t="s">
         <v>584</v>
       </c>
-      <c r="C109" t="s">
-        <v>585</v>
-      </c>
-      <c r="D109" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="E109" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F109" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="110" spans="2:6">
-      <c r="B110" t="s">
-        <v>587</v>
-      </c>
-      <c r="C110" t="s">
-        <v>497</v>
-      </c>
-      <c r="D110" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="E110" s="10">
-        <v>3</v>
-      </c>
-      <c r="F110" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="111" spans="2:6">
-      <c r="B111" t="s">
-        <v>589</v>
-      </c>
-      <c r="C111" t="s">
-        <v>585</v>
+      <c r="D111" s="11" t="s">
+        <v>597</v>
       </c>
       <c r="E111" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="F111" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="112" spans="2:6">
-      <c r="B112" t="s">
-        <v>591</v>
-      </c>
-      <c r="C112" t="s">
-        <v>500</v>
-      </c>
-      <c r="E112" s="10">
-        <v>300</v>
-      </c>
-      <c r="F112" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="113" spans="2:6">
-      <c r="B113" t="s">
-        <v>593</v>
-      </c>
-      <c r="C113" t="s">
-        <v>497</v>
+      <c r="F111" s="14" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>599</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>584</v>
+      </c>
+      <c r="D112" s="11" t="s">
+        <v>597</v>
+      </c>
+      <c r="E112" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F112" s="14" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>601</v>
+      </c>
+      <c r="C113" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="D113" s="11" t="s">
+        <v>597</v>
       </c>
       <c r="E113" s="10">
-        <v>3</v>
-      </c>
-      <c r="F113" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="114" spans="2:6">
-      <c r="B114" t="s">
-        <v>595</v>
-      </c>
-      <c r="C114" t="s">
-        <v>500</v>
-      </c>
-      <c r="E114" s="10">
-        <v>3600</v>
-      </c>
-      <c r="F114" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="115" spans="2:6">
-      <c r="B115" t="s">
-        <v>597</v>
-      </c>
-      <c r="C115" t="s">
-        <v>585</v>
-      </c>
-      <c r="D115" s="7" t="s">
-        <v>598</v>
-      </c>
-      <c r="E115" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F113" s="14" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="C114" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="D114" s="9" t="s">
+        <v>604</v>
+      </c>
+      <c r="E114" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="F115" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="116" spans="2:6">
-      <c r="B116" t="s">
-        <v>600</v>
-      </c>
-      <c r="C116" t="s">
-        <v>585</v>
-      </c>
-      <c r="D116" s="7" t="s">
-        <v>598</v>
-      </c>
-      <c r="E116" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F116" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="117" spans="2:6">
-      <c r="B117" t="s">
-        <v>602</v>
-      </c>
-      <c r="C117" t="s">
-        <v>497</v>
-      </c>
-      <c r="D117" s="7" t="s">
-        <v>598</v>
-      </c>
-      <c r="E117" s="10">
+      <c r="F114" s="14" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B115" s="9" t="s">
+        <v>606</v>
+      </c>
+      <c r="C115" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="D115" s="9" t="s">
+        <v>604</v>
+      </c>
+      <c r="E115" s="10">
+        <v>5</v>
+      </c>
+      <c r="F115" s="14" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="D116" s="9" t="s">
+        <v>604</v>
+      </c>
+      <c r="E116" s="10">
+        <v>5</v>
+      </c>
+      <c r="F116" s="14" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>610</v>
+      </c>
+      <c r="C117" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="D117" s="9"/>
+      <c r="E117" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F117" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="118" spans="2:6">
-      <c r="B118" t="s">
-        <v>604</v>
-      </c>
-      <c r="C118" t="s">
+      <c r="F117" s="14" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B118" s="9" t="s">
+        <v>612</v>
+      </c>
+      <c r="C118" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="D118" t="s">
-        <v>605</v>
-      </c>
+      <c r="D118" s="9"/>
       <c r="E118" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="F118" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="119" spans="2:6">
-      <c r="B119" t="s">
-        <v>607</v>
-      </c>
-      <c r="C119" t="s">
-        <v>497</v>
-      </c>
-      <c r="D119" t="s">
-        <v>605</v>
-      </c>
+      <c r="F118" s="14" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>614</v>
+      </c>
+      <c r="C119" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="D119" s="9"/>
       <c r="E119" s="10">
-        <v>5</v>
-      </c>
-      <c r="F119" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="120" spans="2:6">
-      <c r="B120" t="s">
-        <v>609</v>
-      </c>
-      <c r="C120" t="s">
-        <v>497</v>
-      </c>
-      <c r="D120" t="s">
-        <v>605</v>
-      </c>
+        <v>900</v>
+      </c>
+      <c r="F119" s="14" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>616</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="D120" s="9"/>
       <c r="E120" s="10">
-        <v>5</v>
-      </c>
-      <c r="F120" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="121" spans="2:6">
-      <c r="B121" t="s">
-        <v>611</v>
-      </c>
-      <c r="C121" t="s">
+        <v>60000</v>
+      </c>
+      <c r="F120" s="14" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="C121" s="9" t="s">
         <v>341</v>
       </c>
+      <c r="D121" s="9"/>
       <c r="E121" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F121" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="122" spans="2:6">
-      <c r="B122" t="s">
-        <v>613</v>
-      </c>
-      <c r="C122" t="s">
+        <v>1</v>
+      </c>
+      <c r="F121" s="14" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B122" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="C122" s="9" t="s">
         <v>341</v>
       </c>
+      <c r="D122" s="9"/>
       <c r="E122" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="F122" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="123" spans="2:6">
-      <c r="B123" t="s">
-        <v>615</v>
-      </c>
-      <c r="C123" t="s">
-        <v>500</v>
-      </c>
-      <c r="E123" s="10">
+      <c r="F122" s="14" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B123" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="C123" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="D123" s="9"/>
+      <c r="E123" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F123" s="14" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B124" s="9" t="s">
+        <v>624</v>
+      </c>
+      <c r="C124" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="D124" s="9"/>
+      <c r="E124" s="10" t="s">
+        <v>625</v>
+      </c>
+      <c r="F124" s="14" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B125" s="9" t="s">
+        <v>627</v>
+      </c>
+      <c r="C125" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="D125" s="9"/>
+      <c r="E125" s="10">
         <v>900</v>
       </c>
-      <c r="F123" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="124" spans="2:6">
-      <c r="B124" t="s">
-        <v>617</v>
-      </c>
-      <c r="C124" t="s">
-        <v>426</v>
-      </c>
-      <c r="E124" s="10">
-        <v>60000</v>
-      </c>
-      <c r="F124" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="125" spans="2:6">
-      <c r="B125" t="s">
-        <v>619</v>
-      </c>
-      <c r="C125" t="s">
+      <c r="F125" s="14" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B126" s="9" t="s">
+        <v>629</v>
+      </c>
+      <c r="C126" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="D126" s="9"/>
+      <c r="E126" s="10">
+        <v>10000</v>
+      </c>
+      <c r="F126" s="14" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>631</v>
+      </c>
+      <c r="C127" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="E125" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F125" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="126" spans="2:6">
-      <c r="B126" t="s">
-        <v>621</v>
-      </c>
-      <c r="C126" t="s">
+      <c r="D127" s="9"/>
+      <c r="E127" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F127" s="14" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="C128" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="E126" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F126" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="127" spans="2:6">
-      <c r="B127" t="s">
-        <v>623</v>
-      </c>
-      <c r="C127" t="s">
+      <c r="D128" s="9"/>
+      <c r="E128" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F128" s="14" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>635</v>
+      </c>
+      <c r="C129" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="D129" s="9"/>
+      <c r="E129" s="10">
+        <v>300000</v>
+      </c>
+      <c r="F129" s="14" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="13" t="s">
+        <v>637</v>
+      </c>
+      <c r="B130" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="C130" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="D130" s="9"/>
+      <c r="E130" s="10" t="s">
+        <v>639</v>
+      </c>
+      <c r="F130" s="14" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="13" t="s">
+        <v>637</v>
+      </c>
+      <c r="B131" s="9" t="s">
+        <v>641</v>
+      </c>
+      <c r="C131" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="E127" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F127" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="128" spans="2:6">
-      <c r="B128" t="s">
-        <v>625</v>
-      </c>
-      <c r="C128" t="s">
-        <v>500</v>
-      </c>
-      <c r="E128" s="10" t="s">
-        <v>626</v>
-      </c>
-      <c r="F128" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="129" spans="2:6">
-      <c r="B129" t="s">
-        <v>628</v>
-      </c>
-      <c r="C129" t="s">
-        <v>500</v>
-      </c>
-      <c r="E129" s="10">
-        <v>900</v>
-      </c>
-      <c r="F129" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="130" spans="2:6">
-      <c r="B130" t="s">
-        <v>630</v>
-      </c>
-      <c r="C130" t="s">
-        <v>426</v>
-      </c>
-      <c r="E130" s="10">
-        <v>10000</v>
-      </c>
-      <c r="F130" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="131" spans="2:6">
-      <c r="B131" t="s">
-        <v>632</v>
-      </c>
-      <c r="C131" t="s">
-        <v>341</v>
-      </c>
+      <c r="D131" s="9"/>
       <c r="E131" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F131" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="132" spans="2:6">
-      <c r="B132" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="C132" t="s">
+      <c r="F131" s="14" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="13" t="s">
+        <v>637</v>
+      </c>
+      <c r="B132" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="C132" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="D132" s="9"/>
+      <c r="E132" s="10">
+        <v>20480</v>
+      </c>
+      <c r="F132" s="14" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="13" t="s">
+        <v>637</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>646</v>
+      </c>
+      <c r="C133" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="D133" s="9"/>
+      <c r="E133" s="10">
+        <v>20480</v>
+      </c>
+      <c r="F133" s="14" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="13" t="s">
+        <v>637</v>
+      </c>
+      <c r="B134" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="C134" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="E132" s="10" t="b">
+      <c r="D134" s="9"/>
+      <c r="E134" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="F132" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="133" spans="2:6">
-      <c r="B133" t="s">
-        <v>636</v>
-      </c>
-      <c r="C133" t="s">
-        <v>426</v>
-      </c>
-      <c r="E133" s="10">
-        <v>300000</v>
-      </c>
-      <c r="F133" t="s">
+      <c r="F134" s="14" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="13" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="135" spans="2:6">
-      <c r="B135" s="6" t="s">
-        <v>638</v>
-      </c>
-      <c r="C135" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="E135" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="F135" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="136" spans="2:6">
-      <c r="B136" t="s">
-        <v>639</v>
-      </c>
-      <c r="C136" t="s">
-        <v>537</v>
-      </c>
+      <c r="B135" s="9" t="s">
+        <v>650</v>
+      </c>
+      <c r="C135" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="D135" s="9"/>
+      <c r="E135" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F135" s="14" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="13" t="s">
+        <v>637</v>
+      </c>
+      <c r="B136" s="9" t="s">
+        <v>652</v>
+      </c>
+      <c r="C136" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="D136" s="9"/>
       <c r="E136" s="10" t="s">
-        <v>640</v>
-      </c>
-      <c r="F136" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="137" spans="2:6">
-      <c r="B137" t="s">
-        <v>642</v>
-      </c>
-      <c r="C137" t="s">
-        <v>341</v>
-      </c>
-      <c r="E137" s="10" t="b">
+        <v>653</v>
+      </c>
+      <c r="F136" s="14" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" s="13" t="s">
+        <v>637</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>655</v>
+      </c>
+      <c r="C137" s="9" t="s">
+        <v>656</v>
+      </c>
+      <c r="D137" s="9"/>
+      <c r="E137" s="10">
+        <v>24</v>
+      </c>
+      <c r="F137" s="14" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" s="13" t="s">
+        <v>637</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>658</v>
+      </c>
+      <c r="C138" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="D138" s="9"/>
+      <c r="E138" s="10" t="s">
+        <v>659</v>
+      </c>
+      <c r="F138" s="14" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" s="13" t="s">
+        <v>637</v>
+      </c>
+      <c r="B139" s="9" t="s">
+        <v>661</v>
+      </c>
+      <c r="C139" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="D139" s="9"/>
+      <c r="E139" s="10">
+        <v>51200</v>
+      </c>
+      <c r="F139" s="14" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" s="13" t="s">
+        <v>637</v>
+      </c>
+      <c r="B140" s="9" t="s">
+        <v>663</v>
+      </c>
+      <c r="C140" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="D140" s="9"/>
+      <c r="E140" s="10">
+        <v>300</v>
+      </c>
+      <c r="F140" s="14" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" s="13" t="s">
+        <v>637</v>
+      </c>
+      <c r="B141" s="9" t="s">
+        <v>665</v>
+      </c>
+      <c r="C141" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="D141" s="9"/>
+      <c r="E141" s="10">
+        <v>50</v>
+      </c>
+      <c r="F141" s="14" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" s="13" t="s">
+        <v>637</v>
+      </c>
+      <c r="B142" s="9" t="s">
+        <v>667</v>
+      </c>
+      <c r="C142" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="D142" s="9"/>
+      <c r="E142" s="10">
+        <v>100</v>
+      </c>
+      <c r="F142" s="14" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" s="13" t="s">
+        <v>637</v>
+      </c>
+      <c r="B143" s="9" t="s">
+        <v>669</v>
+      </c>
+      <c r="C143" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="D143" s="9"/>
+      <c r="E143" s="10">
+        <v>10</v>
+      </c>
+      <c r="F143" s="14" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" s="13" t="s">
+        <v>637</v>
+      </c>
+      <c r="B144" s="9" t="s">
+        <v>671</v>
+      </c>
+      <c r="C144" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="D144" s="9"/>
+      <c r="E144" s="10">
+        <v>1000</v>
+      </c>
+      <c r="F144" s="14" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" s="13" t="s">
+        <v>637</v>
+      </c>
+      <c r="B145" s="9" t="s">
+        <v>673</v>
+      </c>
+      <c r="C145" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="D145" s="9"/>
+      <c r="E145" s="10">
+        <v>8192</v>
+      </c>
+      <c r="F145" s="14" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" s="13" t="s">
+        <v>637</v>
+      </c>
+      <c r="B146" s="9" t="s">
+        <v>675</v>
+      </c>
+      <c r="C146" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="D146" s="9"/>
+      <c r="E146" s="10">
+        <v>10000</v>
+      </c>
+      <c r="F146" s="14" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" s="13" t="s">
+        <v>637</v>
+      </c>
+      <c r="B147" s="9" t="s">
+        <v>677</v>
+      </c>
+      <c r="C147" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="D147" s="9"/>
+      <c r="E147" s="10">
+        <v>10000</v>
+      </c>
+      <c r="F147" s="14" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" s="13" t="s">
+        <v>679</v>
+      </c>
+      <c r="B148" s="9" t="s">
+        <v>680</v>
+      </c>
+      <c r="C148" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="D148" s="9"/>
+      <c r="E148" s="10">
         <v>0</v>
       </c>
-      <c r="F137" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="138" spans="2:6">
-      <c r="B138" t="s">
-        <v>644</v>
-      </c>
-      <c r="C138" t="s">
-        <v>645</v>
-      </c>
-      <c r="E138" s="10">
-        <v>20480</v>
-      </c>
-      <c r="F138" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="139" spans="2:6">
-      <c r="B139" t="s">
-        <v>647</v>
-      </c>
-      <c r="C139" t="s">
-        <v>645</v>
-      </c>
-      <c r="E139" s="10">
-        <v>20480</v>
-      </c>
-      <c r="F139" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="140" spans="2:6">
-      <c r="B140" t="s">
-        <v>649</v>
-      </c>
-      <c r="C140" t="s">
-        <v>341</v>
-      </c>
-      <c r="E140" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F140" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="141" spans="2:6">
-      <c r="B141" t="s">
-        <v>651</v>
-      </c>
-      <c r="C141" t="s">
-        <v>341</v>
-      </c>
-      <c r="E141" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F141" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="142" spans="2:6">
-      <c r="B142" t="s">
-        <v>653</v>
-      </c>
-      <c r="C142" t="s">
-        <v>537</v>
-      </c>
-      <c r="E142" s="10" t="s">
-        <v>654</v>
-      </c>
-      <c r="F142" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="143" spans="2:6">
-      <c r="B143" t="s">
-        <v>656</v>
-      </c>
-      <c r="C143" t="s">
-        <v>657</v>
-      </c>
-      <c r="E143" s="10">
-        <v>24</v>
-      </c>
-      <c r="F143" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="144" spans="2:6">
-      <c r="B144" t="s">
-        <v>659</v>
-      </c>
-      <c r="C144" t="s">
-        <v>537</v>
-      </c>
-      <c r="E144" s="10" t="s">
-        <v>660</v>
-      </c>
-      <c r="F144" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="145" spans="2:6">
-      <c r="B145" t="s">
-        <v>662</v>
-      </c>
-      <c r="C145" t="s">
-        <v>497</v>
-      </c>
-      <c r="E145" s="10">
-        <v>51200</v>
-      </c>
-      <c r="F145" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="146" spans="2:6">
-      <c r="B146" t="s">
-        <v>664</v>
-      </c>
-      <c r="C146" t="s">
-        <v>497</v>
-      </c>
-      <c r="E146" s="10">
-        <v>300</v>
-      </c>
-      <c r="F146" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="147" spans="2:6">
-      <c r="B147" t="s">
-        <v>666</v>
-      </c>
-      <c r="C147" t="s">
-        <v>497</v>
-      </c>
-      <c r="E147" s="10">
-        <v>50</v>
-      </c>
-      <c r="F147" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="148" spans="2:6">
-      <c r="B148" t="s">
-        <v>668</v>
-      </c>
-      <c r="C148" t="s">
-        <v>497</v>
-      </c>
-      <c r="E148" s="10">
-        <v>100</v>
-      </c>
-      <c r="F148" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="149" spans="2:6">
-      <c r="B149" t="s">
-        <v>670</v>
-      </c>
-      <c r="C149" t="s">
-        <v>497</v>
-      </c>
-      <c r="E149" s="10">
-        <v>10</v>
-      </c>
-      <c r="F149" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="150" spans="2:6">
-      <c r="B150" t="s">
-        <v>672</v>
-      </c>
-      <c r="C150" t="s">
-        <v>426</v>
-      </c>
-      <c r="E150" s="10">
-        <v>1000</v>
-      </c>
-      <c r="F150" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="151" spans="2:6">
-      <c r="B151" t="s">
-        <v>674</v>
-      </c>
-      <c r="C151" t="s">
-        <v>497</v>
-      </c>
-      <c r="E151" s="10">
-        <v>8192</v>
-      </c>
-      <c r="F151" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="152" spans="2:6">
-      <c r="B152" t="s">
-        <v>676</v>
-      </c>
-      <c r="C152" t="s">
-        <v>497</v>
-      </c>
-      <c r="E152" s="10">
-        <v>10000</v>
-      </c>
-      <c r="F152" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="153" spans="2:6">
-      <c r="B153" t="s">
-        <v>678</v>
-      </c>
-      <c r="C153" t="s">
-        <v>497</v>
-      </c>
-      <c r="E153" s="10">
-        <v>10000</v>
-      </c>
-      <c r="F153" t="s">
+      <c r="F148" s="14" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="15" thickBot="1">
+      <c r="A149" s="16" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="155" spans="2:6">
-      <c r="B155" s="6" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="156" spans="2:6">
-      <c r="B156" t="s">
-        <v>681</v>
-      </c>
-      <c r="C156" t="s">
-        <v>544</v>
-      </c>
-      <c r="E156" s="10">
-        <v>0</v>
-      </c>
-      <c r="F156" t="s">
+      <c r="B149" s="17" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="157" spans="2:6">
-      <c r="B157" t="s">
+      <c r="C149" s="17" t="s">
+        <v>499</v>
+      </c>
+      <c r="D149" s="17"/>
+      <c r="E149" s="18" t="s">
         <v>683</v>
       </c>
-      <c r="C157" t="s">
-        <v>500</v>
-      </c>
-      <c r="E157" s="10" t="s">
+      <c r="F149" s="19" t="s">
         <v>684</v>
       </c>
-      <c r="F157" s="1" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="158" spans="2:6">
-      <c r="B158" s="9"/>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="B150" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:F2"/>
-  </mergeCells>
+  <autoFilter ref="A4:F149" xr:uid="{EC044460-1ABD-4816-A33E-F88851E3268F}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06307269-3844-4F6B-B9F4-4EF9604FFEF4}">
-  <dimension ref="B2:B148"/>
+  <dimension ref="A1:B129"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="70.8203125" customWidth="1"/>
+    <col min="1" max="1" width="17.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.81640625" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2">
-      <c r="B2" s="6" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="38" t="s">
+        <v>822</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="37" t="s">
+        <v>823</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="37" t="s">
+        <v>823</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
-      <c r="B3" s="1" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" s="37" t="s">
+        <v>823</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
-      <c r="B4" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" s="37" t="s">
+        <v>823</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
-      <c r="B5" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" s="37" t="s">
+        <v>823</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
-      <c r="B6" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" s="37" t="s">
+        <v>823</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
-      <c r="B7" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" s="37" t="s">
+        <v>823</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
-      <c r="B8" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" s="37" t="s">
+        <v>823</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
-      <c r="B9" t="s">
+    <row r="10" spans="1:2">
+      <c r="A10" s="37" t="s">
+        <v>825</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
-      <c r="B10" t="s">
+    <row r="11" spans="1:2">
+      <c r="A11" s="37" t="s">
+        <v>825</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="12" spans="2:2">
-      <c r="B12" s="6" t="s">
+    <row r="12" spans="1:2">
+      <c r="A12" s="37" t="s">
+        <v>825</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="13" spans="2:2">
-      <c r="B13" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" s="37" t="s">
+        <v>825</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
-      <c r="B14" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" s="37" t="s">
+        <v>825</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="15" spans="2:2">
-      <c r="B15" t="s">
+    <row r="15" spans="1:2">
+      <c r="A15" s="37" t="s">
+        <v>825</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="16" spans="2:2">
-      <c r="B16" t="s">
+    <row r="16" spans="1:2">
+      <c r="A16" s="37" t="s">
+        <v>825</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" s="37" t="s">
+        <v>825</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
+    <row r="18" spans="1:2">
+      <c r="A18" s="37" t="s">
+        <v>825</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
-      <c r="B19" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" s="37" t="s">
+        <v>825</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
-      <c r="B20" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" s="37" t="s">
+        <v>825</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
-      <c r="B21" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" s="37" t="s">
+        <v>825</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
-      <c r="B22" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" s="37" t="s">
+        <v>826</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="1" t="s">
+    <row r="23" spans="1:2">
+      <c r="A23" s="37" t="s">
+        <v>826</v>
+      </c>
+      <c r="B23" s="9" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
-      <c r="B24" t="s">
+    <row r="24" spans="1:2">
+      <c r="A24" s="37" t="s">
+        <v>826</v>
+      </c>
+      <c r="B24" s="9" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="6" t="s">
+    <row r="25" spans="1:2">
+      <c r="A25" s="37" t="s">
+        <v>826</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="27" spans="2:2">
-      <c r="B27" t="s">
+    <row r="26" spans="1:2">
+      <c r="A26" s="37" t="s">
+        <v>826</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="28" spans="2:2">
-      <c r="B28" t="s">
+    <row r="27" spans="1:2">
+      <c r="A27" s="37" t="s">
+        <v>826</v>
+      </c>
+      <c r="B27" s="9" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
-      <c r="B29" t="s">
+    <row r="28" spans="1:2">
+      <c r="A28" s="37" t="s">
+        <v>826</v>
+      </c>
+      <c r="B28" s="9" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="30" spans="2:2">
-      <c r="B30" t="s">
+    <row r="29" spans="1:2">
+      <c r="A29" s="37" t="s">
+        <v>826</v>
+      </c>
+      <c r="B29" s="9" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
-      <c r="B31" t="s">
+    <row r="30" spans="1:2">
+      <c r="A30" s="37" t="s">
+        <v>826</v>
+      </c>
+      <c r="B30" s="9" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="32" spans="2:2">
-      <c r="B32" t="s">
+    <row r="31" spans="1:2">
+      <c r="A31" s="37" t="s">
+        <v>826</v>
+      </c>
+      <c r="B31" s="9" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
-      <c r="B33" t="s">
+    <row r="32" spans="1:2">
+      <c r="A32" s="37" t="s">
+        <v>826</v>
+      </c>
+      <c r="B32" s="9" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="34" spans="2:2">
-      <c r="B34" t="s">
+    <row r="33" spans="1:2">
+      <c r="A33" s="37" t="s">
+        <v>826</v>
+      </c>
+      <c r="B33" s="9" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="35" spans="2:2">
-      <c r="B35" t="s">
+    <row r="34" spans="1:2">
+      <c r="A34" s="37" t="s">
+        <v>826</v>
+      </c>
+      <c r="B34" s="9" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
-      <c r="B36" t="s">
+    <row r="35" spans="1:2">
+      <c r="A35" s="37" t="s">
+        <v>826</v>
+      </c>
+      <c r="B35" s="9" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
-      <c r="B37" t="s">
+    <row r="36" spans="1:2">
+      <c r="A36" s="37" t="s">
+        <v>826</v>
+      </c>
+      <c r="B36" s="9" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="38" spans="2:2">
-      <c r="B38" t="s">
+    <row r="37" spans="1:2">
+      <c r="A37" s="37" t="s">
+        <v>826</v>
+      </c>
+      <c r="B37" s="9" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="39" spans="2:2">
-      <c r="B39" t="s">
+    <row r="38" spans="1:2">
+      <c r="A38" s="37" t="s">
+        <v>826</v>
+      </c>
+      <c r="B38" s="9" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="40" spans="2:2">
-      <c r="B40" t="s">
+    <row r="39" spans="1:2">
+      <c r="A39" s="37" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="41" spans="2:2">
-      <c r="B41" t="s">
+      <c r="B39" s="9" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="42" spans="2:2">
-      <c r="B42" t="s">
+    <row r="40" spans="1:2">
+      <c r="A40" s="37" t="s">
+        <v>722</v>
+      </c>
+      <c r="B40" s="9" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="43" spans="2:2">
-      <c r="B43" t="s">
+    <row r="41" spans="1:2">
+      <c r="A41" s="37" t="s">
+        <v>722</v>
+      </c>
+      <c r="B41" s="9" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="45" spans="2:2">
-      <c r="B45" s="6" t="s">
+    <row r="42" spans="1:2">
+      <c r="A42" s="37" t="s">
+        <v>722</v>
+      </c>
+      <c r="B42" s="9" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="46" spans="2:2">
-      <c r="B46" t="s">
+    <row r="43" spans="1:2">
+      <c r="A43" s="37" t="s">
+        <v>722</v>
+      </c>
+      <c r="B43" s="9" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="47" spans="2:2">
-      <c r="B47" t="s">
+    <row r="44" spans="1:2">
+      <c r="A44" s="37" t="s">
+        <v>722</v>
+      </c>
+      <c r="B44" s="9" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="48" spans="2:2">
-      <c r="B48" t="s">
+    <row r="45" spans="1:2">
+      <c r="A45" s="37" t="s">
+        <v>722</v>
+      </c>
+      <c r="B45" s="9" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="49" spans="2:2">
-      <c r="B49" t="s">
+    <row r="46" spans="1:2">
+      <c r="A46" s="37" t="s">
+        <v>722</v>
+      </c>
+      <c r="B46" s="9" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="50" spans="2:2">
-      <c r="B50" t="s">
+    <row r="47" spans="1:2">
+      <c r="A47" s="37" t="s">
+        <v>722</v>
+      </c>
+      <c r="B47" s="9" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="51" spans="2:2">
-      <c r="B51" t="s">
+    <row r="48" spans="1:2">
+      <c r="A48" s="37" t="s">
+        <v>722</v>
+      </c>
+      <c r="B48" s="9" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="52" spans="2:2">
-      <c r="B52" t="s">
+    <row r="49" spans="1:2">
+      <c r="A49" s="37" t="s">
+        <v>722</v>
+      </c>
+      <c r="B49" s="9" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="53" spans="2:2">
-      <c r="B53" t="s">
+    <row r="50" spans="1:2">
+      <c r="A50" s="37" t="s">
+        <v>722</v>
+      </c>
+      <c r="B50" s="9" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="54" spans="2:2">
-      <c r="B54" t="s">
+    <row r="51" spans="1:2">
+      <c r="A51" s="37" t="s">
+        <v>722</v>
+      </c>
+      <c r="B51" s="9" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="55" spans="2:2">
-      <c r="B55" t="s">
+    <row r="52" spans="1:2">
+      <c r="A52" s="37" t="s">
+        <v>722</v>
+      </c>
+      <c r="B52" s="9" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="56" spans="2:2">
-      <c r="B56" t="s">
+    <row r="53" spans="1:2">
+      <c r="A53" s="37" t="s">
+        <v>722</v>
+      </c>
+      <c r="B53" s="9" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="57" spans="2:2">
-      <c r="B57" t="s">
+    <row r="54" spans="1:2">
+      <c r="A54" s="37" t="s">
+        <v>722</v>
+      </c>
+      <c r="B54" s="9" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="58" spans="2:2">
-      <c r="B58" t="s">
+    <row r="55" spans="1:2">
+      <c r="A55" s="37" t="s">
+        <v>722</v>
+      </c>
+      <c r="B55" s="9" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="59" spans="2:2">
-      <c r="B59" t="s">
+    <row r="56" spans="1:2">
+      <c r="A56" s="37" t="s">
+        <v>722</v>
+      </c>
+      <c r="B56" s="9" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="60" spans="2:2">
-      <c r="B60" t="s">
+    <row r="57" spans="1:2">
+      <c r="A57" s="37" t="s">
+        <v>722</v>
+      </c>
+      <c r="B57" s="9" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="61" spans="2:2">
-      <c r="B61" t="s">
+    <row r="58" spans="1:2">
+      <c r="A58" s="37" t="s">
+        <v>722</v>
+      </c>
+      <c r="B58" s="9" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="62" spans="2:2">
-      <c r="B62" t="s">
+    <row r="59" spans="1:2">
+      <c r="A59" s="37" t="s">
+        <v>722</v>
+      </c>
+      <c r="B59" s="9" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="63" spans="2:2">
-      <c r="B63" t="s">
+    <row r="60" spans="1:2">
+      <c r="A60" s="37" t="s">
+        <v>722</v>
+      </c>
+      <c r="B60" s="9" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="64" spans="2:2">
-      <c r="B64" t="s">
+    <row r="61" spans="1:2">
+      <c r="A61" s="37" t="s">
+        <v>722</v>
+      </c>
+      <c r="B61" s="9" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="65" spans="2:2">
-      <c r="B65" t="s">
+    <row r="62" spans="1:2">
+      <c r="A62" s="37" t="s">
+        <v>722</v>
+      </c>
+      <c r="B62" s="9" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="66" spans="2:2">
-      <c r="B66" t="s">
+    <row r="63" spans="1:2">
+      <c r="A63" s="37" t="s">
+        <v>722</v>
+      </c>
+      <c r="B63" s="9" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="67" spans="2:2">
-      <c r="B67" t="s">
+    <row r="64" spans="1:2">
+      <c r="A64" s="37" t="s">
+        <v>722</v>
+      </c>
+      <c r="B64" s="9" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="68" spans="2:2">
-      <c r="B68" t="s">
+    <row r="65" spans="1:2">
+      <c r="A65" s="37" t="s">
+        <v>722</v>
+      </c>
+      <c r="B65" s="9" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="69" spans="2:2">
-      <c r="B69" t="s">
+    <row r="66" spans="1:2">
+      <c r="A66" s="37" t="s">
+        <v>722</v>
+      </c>
+      <c r="B66" s="9" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="70" spans="2:2">
-      <c r="B70" t="s">
+    <row r="67" spans="1:2">
+      <c r="A67" s="37" t="s">
+        <v>722</v>
+      </c>
+      <c r="B67" s="9" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="71" spans="2:2">
-      <c r="B71" t="s">
+    <row r="68" spans="1:2">
+      <c r="A68" s="37" t="s">
+        <v>722</v>
+      </c>
+      <c r="B68" s="9" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="72" spans="2:2">
-      <c r="B72" t="s">
+    <row r="69" spans="1:2">
+      <c r="A69" s="37" t="s">
+        <v>722</v>
+      </c>
+      <c r="B69" s="9" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="73" spans="2:2">
-      <c r="B73" t="s">
+    <row r="70" spans="1:2">
+      <c r="A70" s="37" t="s">
+        <v>722</v>
+      </c>
+      <c r="B70" s="9" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="74" spans="2:2">
-      <c r="B74" t="s">
+    <row r="71" spans="1:2">
+      <c r="A71" s="37" t="s">
+        <v>722</v>
+      </c>
+      <c r="B71" s="9" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="75" spans="2:2">
-      <c r="B75" t="s">
+    <row r="72" spans="1:2">
+      <c r="A72" s="37" t="s">
+        <v>722</v>
+      </c>
+      <c r="B72" s="9" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="76" spans="2:2">
-      <c r="B76" t="s">
+    <row r="73" spans="1:2">
+      <c r="A73" s="37" t="s">
+        <v>722</v>
+      </c>
+      <c r="B73" s="9" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="77" spans="2:2">
-      <c r="B77" t="s">
+    <row r="74" spans="1:2">
+      <c r="A74" s="37" t="s">
+        <v>722</v>
+      </c>
+      <c r="B74" s="9" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="78" spans="2:2">
-      <c r="B78" t="s">
+    <row r="75" spans="1:2">
+      <c r="A75" s="37" t="s">
+        <v>722</v>
+      </c>
+      <c r="B75" s="9" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="79" spans="2:2">
-      <c r="B79" t="s">
+    <row r="76" spans="1:2">
+      <c r="A76" s="37" t="s">
+        <v>722</v>
+      </c>
+      <c r="B76" s="9" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="80" spans="2:2">
-      <c r="B80" t="s">
+    <row r="77" spans="1:2">
+      <c r="A77" s="37" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="81" spans="2:2">
-      <c r="B81" t="s">
+      <c r="B77" s="9" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="82" spans="2:2">
-      <c r="B82" t="s">
+    <row r="78" spans="1:2">
+      <c r="A78" s="37" t="s">
+        <v>761</v>
+      </c>
+      <c r="B78" s="9" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="83" spans="2:2">
-      <c r="B83" t="s">
+    <row r="79" spans="1:2">
+      <c r="A79" s="37" t="s">
+        <v>761</v>
+      </c>
+      <c r="B79" s="9" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="85" spans="2:2">
-      <c r="B85" s="6" t="s">
+    <row r="80" spans="1:2">
+      <c r="A80" s="37" t="s">
+        <v>761</v>
+      </c>
+      <c r="B80" s="9" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="86" spans="2:2">
-      <c r="B86" t="s">
+    <row r="81" spans="1:2">
+      <c r="A81" s="37" t="s">
+        <v>761</v>
+      </c>
+      <c r="B81" s="9" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="87" spans="2:2">
-      <c r="B87" t="s">
+    <row r="82" spans="1:2">
+      <c r="A82" s="37" t="s">
+        <v>761</v>
+      </c>
+      <c r="B82" s="9" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="88" spans="2:2">
-      <c r="B88" t="s">
+    <row r="83" spans="1:2">
+      <c r="A83" s="37" t="s">
+        <v>761</v>
+      </c>
+      <c r="B83" s="9" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="89" spans="2:2">
-      <c r="B89" t="s">
+    <row r="84" spans="1:2">
+      <c r="A84" s="37" t="s">
+        <v>761</v>
+      </c>
+      <c r="B84" s="9" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="90" spans="2:2">
-      <c r="B90" t="s">
+    <row r="85" spans="1:2">
+      <c r="A85" s="37" t="s">
+        <v>761</v>
+      </c>
+      <c r="B85" s="9" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="91" spans="2:2">
-      <c r="B91" t="s">
+    <row r="86" spans="1:2">
+      <c r="A86" s="37" t="s">
+        <v>761</v>
+      </c>
+      <c r="B86" s="9" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="92" spans="2:2">
-      <c r="B92" t="s">
+    <row r="87" spans="1:2">
+      <c r="A87" s="37" t="s">
+        <v>761</v>
+      </c>
+      <c r="B87" s="9" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="93" spans="2:2">
-      <c r="B93" t="s">
+    <row r="88" spans="1:2">
+      <c r="A88" s="37" t="s">
+        <v>761</v>
+      </c>
+      <c r="B88" s="9" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="94" spans="2:2">
-      <c r="B94" t="s">
+    <row r="89" spans="1:2">
+      <c r="A89" s="37" t="s">
+        <v>761</v>
+      </c>
+      <c r="B89" s="9" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="95" spans="2:2">
-      <c r="B95" t="s">
+    <row r="90" spans="1:2">
+      <c r="A90" s="37" t="s">
+        <v>761</v>
+      </c>
+      <c r="B90" s="9" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="96" spans="2:2">
-      <c r="B96" t="s">
+    <row r="91" spans="1:2">
+      <c r="A91" s="37" t="s">
+        <v>761</v>
+      </c>
+      <c r="B91" s="9" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="97" spans="2:2">
-      <c r="B97" t="s">
+    <row r="92" spans="1:2">
+      <c r="A92" s="37" t="s">
+        <v>761</v>
+      </c>
+      <c r="B92" s="9" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="98" spans="2:2">
-      <c r="B98" t="s">
+    <row r="93" spans="1:2">
+      <c r="A93" s="37" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="99" spans="2:2">
-      <c r="B99" t="s">
+      <c r="B93" s="9" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="100" spans="2:2">
-      <c r="B100" t="s">
+    <row r="94" spans="1:2">
+      <c r="A94" s="37" t="s">
+        <v>778</v>
+      </c>
+      <c r="B94" s="9" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="101" spans="2:2">
-      <c r="B101" t="s">
+    <row r="95" spans="1:2">
+      <c r="A95" s="37" t="s">
+        <v>778</v>
+      </c>
+      <c r="B95" s="9" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="103" spans="2:2">
-      <c r="B103" s="6" t="s">
+    <row r="96" spans="1:2">
+      <c r="A96" s="37" t="s">
+        <v>778</v>
+      </c>
+      <c r="B96" s="9" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="104" spans="2:2">
-      <c r="B104" t="s">
+    <row r="97" spans="1:2">
+      <c r="A97" s="37" t="s">
+        <v>778</v>
+      </c>
+      <c r="B97" s="9" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="105" spans="2:2">
-      <c r="B105" t="s">
+    <row r="98" spans="1:2">
+      <c r="A98" s="37" t="s">
+        <v>778</v>
+      </c>
+      <c r="B98" s="9" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="106" spans="2:2">
-      <c r="B106" t="s">
+    <row r="99" spans="1:2">
+      <c r="A99" s="37" t="s">
+        <v>778</v>
+      </c>
+      <c r="B99" s="9" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="107" spans="2:2">
-      <c r="B107" t="s">
+    <row r="100" spans="1:2">
+      <c r="A100" s="37" t="s">
+        <v>778</v>
+      </c>
+      <c r="B100" s="9" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="108" spans="2:2">
-      <c r="B108" t="s">
+    <row r="101" spans="1:2">
+      <c r="A101" s="37" t="s">
         <v>787</v>
       </c>
-    </row>
-    <row r="109" spans="2:2">
-      <c r="B109" t="s">
+      <c r="B101" s="9" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="110" spans="2:2">
-      <c r="B110" t="s">
+    <row r="102" spans="1:2">
+      <c r="A102" s="37" t="s">
+        <v>787</v>
+      </c>
+      <c r="B102" s="9" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="111" spans="2:2">
-      <c r="B111" t="s">
+    <row r="103" spans="1:2">
+      <c r="A103" s="37" t="s">
+        <v>787</v>
+      </c>
+      <c r="B103" s="9" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="113" spans="2:2">
-      <c r="B113" s="6" t="s">
+    <row r="104" spans="1:2">
+      <c r="A104" s="37" t="s">
+        <v>787</v>
+      </c>
+      <c r="B104" s="9" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="114" spans="2:2">
-      <c r="B114" t="s">
+    <row r="105" spans="1:2">
+      <c r="A105" s="37" t="s">
+        <v>787</v>
+      </c>
+      <c r="B105" s="9" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="115" spans="2:2">
-      <c r="B115" t="s">
+    <row r="106" spans="1:2">
+      <c r="A106" s="37" t="s">
+        <v>787</v>
+      </c>
+      <c r="B106" s="9" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="116" spans="2:2">
-      <c r="B116" t="s">
+    <row r="107" spans="1:2">
+      <c r="A107" s="37" t="s">
+        <v>787</v>
+      </c>
+      <c r="B107" s="9" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="117" spans="2:2">
-      <c r="B117" t="s">
+    <row r="108" spans="1:2">
+      <c r="A108" s="37" t="s">
+        <v>787</v>
+      </c>
+      <c r="B108" s="9" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="118" spans="2:2">
-      <c r="B118" t="s">
+    <row r="109" spans="1:2">
+      <c r="A109" s="37" t="s">
+        <v>787</v>
+      </c>
+      <c r="B109" s="9" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="119" spans="2:2">
-      <c r="B119" t="s">
+    <row r="110" spans="1:2">
+      <c r="A110" s="37" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="120" spans="2:2">
-      <c r="B120" t="s">
+      <c r="B110" s="9" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="121" spans="2:2">
-      <c r="B121" t="s">
+    <row r="111" spans="1:2">
+      <c r="A111" s="37" t="s">
+        <v>797</v>
+      </c>
+      <c r="B111" s="9" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="122" spans="2:2">
-      <c r="B122" t="s">
+    <row r="112" spans="1:2">
+      <c r="A112" s="37" t="s">
+        <v>797</v>
+      </c>
+      <c r="B112" s="9" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="124" spans="2:2">
-      <c r="B124" s="6" t="s">
+    <row r="113" spans="1:2">
+      <c r="A113" s="37" t="s">
         <v>801</v>
       </c>
-    </row>
-    <row r="125" spans="2:2">
-      <c r="B125" t="s">
+      <c r="B113" s="9" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="126" spans="2:2">
-      <c r="B126" t="s">
+    <row r="114" spans="1:2">
+      <c r="A114" s="37" t="s">
+        <v>801</v>
+      </c>
+      <c r="B114" s="9" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="127" spans="2:2">
-      <c r="B127" t="s">
+    <row r="115" spans="1:2">
+      <c r="A115" s="37" t="s">
+        <v>801</v>
+      </c>
+      <c r="B115" s="9" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="129" spans="2:2">
-      <c r="B129" s="6" t="s">
+    <row r="116" spans="1:2">
+      <c r="A116" s="37" t="s">
+        <v>801</v>
+      </c>
+      <c r="B116" s="9" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="130" spans="2:2">
-      <c r="B130" t="s">
+    <row r="117" spans="1:2">
+      <c r="A117" s="37" t="s">
+        <v>801</v>
+      </c>
+      <c r="B117" s="9" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="131" spans="2:2">
-      <c r="B131" t="s">
+    <row r="118" spans="1:2">
+      <c r="A118" s="37" t="s">
+        <v>801</v>
+      </c>
+      <c r="B118" s="9" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="132" spans="2:2">
-      <c r="B132" t="s">
+    <row r="119" spans="1:2">
+      <c r="A119" s="37" t="s">
+        <v>801</v>
+      </c>
+      <c r="B119" s="9" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="133" spans="2:2">
-      <c r="B133" t="s">
+    <row r="120" spans="1:2">
+      <c r="A120" s="37" t="s">
+        <v>801</v>
+      </c>
+      <c r="B120" s="9" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="134" spans="2:2">
-      <c r="B134" t="s">
+    <row r="121" spans="1:2">
+      <c r="A121" s="37" t="s">
+        <v>801</v>
+      </c>
+      <c r="B121" s="9" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="135" spans="2:2">
-      <c r="B135" t="s">
+    <row r="122" spans="1:2">
+      <c r="A122" s="37" t="s">
+        <v>801</v>
+      </c>
+      <c r="B122" s="9" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="136" spans="2:2">
-      <c r="B136" t="s">
+    <row r="123" spans="1:2">
+      <c r="A123" s="37" t="s">
+        <v>801</v>
+      </c>
+      <c r="B123" s="9" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="137" spans="2:2">
-      <c r="B137" t="s">
+    <row r="124" spans="1:2">
+      <c r="A124" s="37" t="s">
         <v>813</v>
       </c>
-    </row>
-    <row r="138" spans="2:2">
-      <c r="B138" t="s">
+      <c r="B124" s="9" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="139" spans="2:2">
-      <c r="B139" t="s">
+    <row r="125" spans="1:2">
+      <c r="A125" s="37" t="s">
+        <v>813</v>
+      </c>
+      <c r="B125" s="9" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="140" spans="2:2">
-      <c r="B140" t="s">
+    <row r="126" spans="1:2">
+      <c r="A126" s="37" t="s">
+        <v>813</v>
+      </c>
+      <c r="B126" s="9" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="142" spans="2:2">
-      <c r="B142" s="6" t="s">
+    <row r="127" spans="1:2">
+      <c r="A127" s="37" t="s">
+        <v>813</v>
+      </c>
+      <c r="B127" s="9" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="143" spans="2:2">
-      <c r="B143" t="s">
+    <row r="128" spans="1:2">
+      <c r="A128" s="37" t="s">
+        <v>813</v>
+      </c>
+      <c r="B128" s="9" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="144" spans="2:2">
-      <c r="B144" t="s">
+    <row r="129" spans="1:2">
+      <c r="A129" s="37" t="s">
+        <v>813</v>
+      </c>
+      <c r="B129" s="9" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="145" spans="2:2">
-      <c r="B145" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="146" spans="2:2">
-      <c r="B146" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="147" spans="2:2">
-      <c r="B147" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="148" spans="2:2">
-      <c r="B148" t="s">
-        <v>823</v>
-      </c>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:B1" xr:uid="{06307269-3844-4F6B-B9F4-4EF9604FFEF4}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8122,15 +9291,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100706476B97F2EE547B8DB19FCABF633AC" ma:contentTypeVersion="23" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="433d798633f9be290b9e0aa81858aeed">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="68a7ebcf-6b5b-44b0-81ab-04a4dcac4059" xmlns:ns3="8a5529cd-54a0-4a3e-82be-3d6efe5cdd94" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a19c84c02d6657981196bb9dced0de25" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -8427,6 +9587,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D0FB739-2D37-493D-8768-CD7C775E4FB4}">
   <ds:schemaRefs>
@@ -8447,14 +9616,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9E85280-DD43-41CF-A750-76D914E150E8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F777A84-D50B-4F2B-A2B9-78FA691E0503}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8475,6 +9636,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9E85280-DD43-41CF-A750-76D914E150E8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Privileged" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" contentBits="0" removed="0"/>
